--- a/Data/Sales_and_Stock.xlsx
+++ b/Data/Sales_and_Stock.xlsx
@@ -226,12 +226,12 @@
     <t>Freshtear 10ml Ophthalmic Solution</t>
   </si>
   <si>
+    <t>Levomax 5ml Ophthalmic Solution</t>
+  </si>
+  <si>
     <t>Levomax TS 5ml Ophthalmic Solution</t>
   </si>
   <si>
-    <t>Levomax 5ml Ophthalmic Solution</t>
-  </si>
-  <si>
     <t>Lumigan 0.03% 3 ml</t>
   </si>
   <si>
@@ -244,10 +244,10 @@
     <t>Relestat 5 ml</t>
   </si>
   <si>
+    <t>Romfen S 5ml Opthalmic Solution</t>
+  </si>
+  <si>
     <t>Romfen 5ml Ophthalmic Solution</t>
-  </si>
-  <si>
-    <t>Romfen S 5ml Opthalmic Solution</t>
   </si>
   <si>
     <t>Visomox 5ml Ophthalmic Solution</t>
@@ -1436,10 +1436,10 @@
         <v>154</v>
       </c>
       <c r="G6">
-        <v>7060</v>
+        <v>7059</v>
       </c>
       <c r="H6">
-        <v>7060</v>
+        <v>7059</v>
       </c>
       <c r="I6">
         <v>5460</v>
@@ -1585,37 +1585,37 @@
         <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F7">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="G7">
-        <v>1320</v>
+        <v>1352</v>
       </c>
       <c r="H7">
-        <v>1320</v>
+        <v>1352</v>
       </c>
       <c r="I7">
-        <v>894</v>
+        <v>546</v>
       </c>
       <c r="J7">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="K7">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="L7">
-        <v>894</v>
+        <v>479</v>
       </c>
       <c r="M7">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="N7">
-        <v>3247</v>
+        <v>2796</v>
       </c>
       <c r="O7">
-        <v>4141</v>
+        <v>3342</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1630,100 +1630,100 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>4011</v>
+        <v>3255</v>
       </c>
       <c r="U7">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="V7">
-        <v>148</v>
+        <v>15</v>
       </c>
       <c r="W7">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X7">
-        <v>131</v>
+        <v>71</v>
       </c>
       <c r="Y7">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="Z7">
-        <v>214</v>
+        <v>40</v>
       </c>
       <c r="AA7">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AB7">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AC7">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="AD7">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="AE7">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="AF7">
+        <v>180</v>
+      </c>
+      <c r="AG7">
+        <v>247</v>
+      </c>
+      <c r="AH7">
+        <v>119</v>
+      </c>
+      <c r="AI7">
+        <v>70</v>
+      </c>
+      <c r="AJ7">
+        <v>56</v>
+      </c>
+      <c r="AK7">
+        <v>98</v>
+      </c>
+      <c r="AL7">
+        <v>145</v>
+      </c>
+      <c r="AM7">
+        <v>74</v>
+      </c>
+      <c r="AN7">
+        <v>238</v>
+      </c>
+      <c r="AO7">
+        <v>108</v>
+      </c>
+      <c r="AP7">
+        <v>19</v>
+      </c>
+      <c r="AQ7">
+        <v>87</v>
+      </c>
+      <c r="AR7">
+        <v>126</v>
+      </c>
+      <c r="AS7">
+        <v>76</v>
+      </c>
+      <c r="AT7">
         <v>69</v>
       </c>
-      <c r="AG7">
-        <v>195</v>
-      </c>
-      <c r="AH7">
-        <v>135</v>
-      </c>
-      <c r="AI7">
-        <v>144</v>
-      </c>
-      <c r="AJ7">
-        <v>73</v>
-      </c>
-      <c r="AK7">
-        <v>141</v>
-      </c>
-      <c r="AL7">
-        <v>232</v>
-      </c>
-      <c r="AM7">
-        <v>98</v>
-      </c>
-      <c r="AN7">
-        <v>217</v>
-      </c>
-      <c r="AO7">
-        <v>34</v>
-      </c>
-      <c r="AP7">
-        <v>158</v>
-      </c>
-      <c r="AQ7">
-        <v>130</v>
-      </c>
-      <c r="AR7">
-        <v>73</v>
-      </c>
-      <c r="AS7">
-        <v>143</v>
-      </c>
-      <c r="AT7">
-        <v>89</v>
-      </c>
       <c r="AU7">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="AV7">
-        <v>128</v>
+        <v>205</v>
       </c>
       <c r="AW7">
-        <v>197</v>
+        <v>103</v>
       </c>
       <c r="AX7">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="AY7">
-        <v>187</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:51">
@@ -1740,37 +1740,37 @@
         <v>71</v>
       </c>
       <c r="E8" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F8">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G8">
-        <v>1352</v>
+        <v>1320</v>
       </c>
       <c r="H8">
-        <v>1352</v>
+        <v>1320</v>
       </c>
       <c r="I8">
-        <v>546</v>
+        <v>894</v>
       </c>
       <c r="J8">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="K8">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="L8">
-        <v>479</v>
+        <v>894</v>
       </c>
       <c r="M8">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="N8">
-        <v>2796</v>
+        <v>3247</v>
       </c>
       <c r="O8">
-        <v>3342</v>
+        <v>4141</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1785,100 +1785,100 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>3255</v>
+        <v>4011</v>
       </c>
       <c r="U8">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="V8">
-        <v>15</v>
+        <v>148</v>
       </c>
       <c r="W8">
+        <v>72</v>
+      </c>
+      <c r="X8">
+        <v>131</v>
+      </c>
+      <c r="Y8">
+        <v>78</v>
+      </c>
+      <c r="Z8">
+        <v>214</v>
+      </c>
+      <c r="AA8">
+        <v>99</v>
+      </c>
+      <c r="AB8">
+        <v>121</v>
+      </c>
+      <c r="AC8">
+        <v>110</v>
+      </c>
+      <c r="AD8">
+        <v>167</v>
+      </c>
+      <c r="AE8">
+        <v>140</v>
+      </c>
+      <c r="AF8">
+        <v>69</v>
+      </c>
+      <c r="AG8">
+        <v>195</v>
+      </c>
+      <c r="AH8">
+        <v>135</v>
+      </c>
+      <c r="AI8">
+        <v>144</v>
+      </c>
+      <c r="AJ8">
         <v>73</v>
       </c>
-      <c r="X8">
-        <v>71</v>
-      </c>
-      <c r="Y8">
-        <v>110</v>
-      </c>
-      <c r="Z8">
-        <v>40</v>
-      </c>
-      <c r="AA8">
+      <c r="AK8">
+        <v>141</v>
+      </c>
+      <c r="AL8">
+        <v>232</v>
+      </c>
+      <c r="AM8">
         <v>98</v>
       </c>
-      <c r="AB8">
-        <v>123</v>
-      </c>
-      <c r="AC8">
-        <v>5</v>
-      </c>
-      <c r="AD8">
+      <c r="AN8">
+        <v>217</v>
+      </c>
+      <c r="AO8">
+        <v>34</v>
+      </c>
+      <c r="AP8">
+        <v>158</v>
+      </c>
+      <c r="AQ8">
+        <v>130</v>
+      </c>
+      <c r="AR8">
+        <v>73</v>
+      </c>
+      <c r="AS8">
+        <v>143</v>
+      </c>
+      <c r="AT8">
+        <v>89</v>
+      </c>
+      <c r="AU8">
         <v>192</v>
       </c>
-      <c r="AE8">
-        <v>152</v>
-      </c>
-      <c r="AF8">
-        <v>180</v>
-      </c>
-      <c r="AG8">
-        <v>247</v>
-      </c>
-      <c r="AH8">
-        <v>119</v>
-      </c>
-      <c r="AI8">
-        <v>70</v>
-      </c>
-      <c r="AJ8">
-        <v>56</v>
-      </c>
-      <c r="AK8">
-        <v>98</v>
-      </c>
-      <c r="AL8">
-        <v>145</v>
-      </c>
-      <c r="AM8">
-        <v>74</v>
-      </c>
-      <c r="AN8">
-        <v>238</v>
-      </c>
-      <c r="AO8">
-        <v>108</v>
-      </c>
-      <c r="AP8">
-        <v>19</v>
-      </c>
-      <c r="AQ8">
-        <v>87</v>
-      </c>
-      <c r="AR8">
-        <v>126</v>
-      </c>
-      <c r="AS8">
-        <v>76</v>
-      </c>
-      <c r="AT8">
-        <v>69</v>
-      </c>
-      <c r="AU8">
-        <v>42</v>
-      </c>
       <c r="AV8">
-        <v>205</v>
+        <v>128</v>
       </c>
       <c r="AW8">
-        <v>103</v>
+        <v>197</v>
       </c>
       <c r="AX8">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="AY8">
-        <v>268</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:51">
@@ -2056,10 +2056,10 @@
         <v>23</v>
       </c>
       <c r="G10">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="H10">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="I10">
         <v>866</v>
@@ -2515,145 +2515,145 @@
         <v>76</v>
       </c>
       <c r="E13" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F13">
+        <v>35</v>
+      </c>
+      <c r="G13">
+        <v>1375</v>
+      </c>
+      <c r="H13">
+        <v>1375</v>
+      </c>
+      <c r="I13">
+        <v>1477</v>
+      </c>
+      <c r="J13">
+        <v>107</v>
+      </c>
+      <c r="K13">
+        <v>107</v>
+      </c>
+      <c r="L13">
+        <v>1089</v>
+      </c>
+      <c r="M13">
+        <v>79</v>
+      </c>
+      <c r="N13">
+        <v>5393</v>
+      </c>
+      <c r="O13">
+        <v>6870</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>6726</v>
+      </c>
+      <c r="U13">
+        <v>198</v>
+      </c>
+      <c r="V13">
+        <v>113</v>
+      </c>
+      <c r="W13">
+        <v>92</v>
+      </c>
+      <c r="X13">
+        <v>210</v>
+      </c>
+      <c r="Y13">
+        <v>352</v>
+      </c>
+      <c r="Z13">
+        <v>137</v>
+      </c>
+      <c r="AA13">
+        <v>167</v>
+      </c>
+      <c r="AB13">
+        <v>221</v>
+      </c>
+      <c r="AC13">
+        <v>139</v>
+      </c>
+      <c r="AD13">
+        <v>165</v>
+      </c>
+      <c r="AE13">
+        <v>240</v>
+      </c>
+      <c r="AF13">
+        <v>148</v>
+      </c>
+      <c r="AG13">
+        <v>281</v>
+      </c>
+      <c r="AH13">
+        <v>210</v>
+      </c>
+      <c r="AI13">
+        <v>205</v>
+      </c>
+      <c r="AJ13">
+        <v>55</v>
+      </c>
+      <c r="AK13">
+        <v>1361</v>
+      </c>
+      <c r="AL13">
+        <v>43</v>
+      </c>
+      <c r="AM13">
+        <v>138</v>
+      </c>
+      <c r="AN13">
+        <v>792</v>
+      </c>
+      <c r="AO13">
         <v>21</v>
       </c>
-      <c r="G13">
-        <v>1512</v>
-      </c>
-      <c r="H13">
-        <v>1512</v>
-      </c>
-      <c r="I13">
-        <v>558</v>
-      </c>
-      <c r="J13">
-        <v>36</v>
-      </c>
-      <c r="K13">
-        <v>36</v>
-      </c>
-      <c r="L13">
-        <v>666</v>
-      </c>
-      <c r="M13">
-        <v>44</v>
-      </c>
-      <c r="N13">
-        <v>6835</v>
-      </c>
-      <c r="O13">
-        <v>7393</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>96</v>
-      </c>
-      <c r="T13">
-        <v>7169</v>
-      </c>
-      <c r="U13">
-        <v>274</v>
-      </c>
-      <c r="V13">
-        <v>260</v>
-      </c>
-      <c r="W13">
-        <v>158</v>
-      </c>
-      <c r="X13">
-        <v>225</v>
-      </c>
-      <c r="Y13">
-        <v>341</v>
-      </c>
-      <c r="Z13">
-        <v>189</v>
-      </c>
-      <c r="AA13">
-        <v>108</v>
-      </c>
-      <c r="AB13">
-        <v>261</v>
-      </c>
-      <c r="AC13">
-        <v>195</v>
-      </c>
-      <c r="AD13">
-        <v>235</v>
-      </c>
-      <c r="AE13">
-        <v>155</v>
-      </c>
-      <c r="AF13">
-        <v>234</v>
-      </c>
-      <c r="AG13">
-        <v>290</v>
-      </c>
-      <c r="AH13">
-        <v>232</v>
-      </c>
-      <c r="AI13">
-        <v>274</v>
-      </c>
-      <c r="AJ13">
-        <v>140</v>
-      </c>
-      <c r="AK13">
-        <v>523</v>
-      </c>
-      <c r="AL13">
-        <v>267</v>
-      </c>
-      <c r="AM13">
+      <c r="AP13">
+        <v>223</v>
+      </c>
+      <c r="AQ13">
+        <v>144</v>
+      </c>
+      <c r="AR13">
+        <v>97</v>
+      </c>
+      <c r="AS13">
         <v>171</v>
       </c>
-      <c r="AN13">
-        <v>440</v>
-      </c>
-      <c r="AO13">
-        <v>213</v>
-      </c>
-      <c r="AP13">
-        <v>214</v>
-      </c>
-      <c r="AQ13">
-        <v>224</v>
-      </c>
-      <c r="AR13">
-        <v>269</v>
-      </c>
-      <c r="AS13">
-        <v>266</v>
-      </c>
       <c r="AT13">
-        <v>230</v>
+        <v>172</v>
       </c>
       <c r="AU13">
-        <v>53</v>
+        <v>167</v>
       </c>
       <c r="AV13">
-        <v>293</v>
+        <v>129</v>
       </c>
       <c r="AW13">
-        <v>187</v>
+        <v>133</v>
       </c>
       <c r="AX13">
+        <v>170</v>
+      </c>
+      <c r="AY13">
         <v>176</v>
-      </c>
-      <c r="AY13">
-        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:51">
@@ -2670,37 +2670,37 @@
         <v>77</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F14">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="G14">
-        <v>1375</v>
+        <v>1512</v>
       </c>
       <c r="H14">
-        <v>1375</v>
+        <v>1512</v>
       </c>
       <c r="I14">
-        <v>1477</v>
+        <v>558</v>
       </c>
       <c r="J14">
-        <v>107</v>
+        <v>36</v>
       </c>
       <c r="K14">
-        <v>107</v>
+        <v>36</v>
       </c>
       <c r="L14">
-        <v>1089</v>
+        <v>666</v>
       </c>
       <c r="M14">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="N14">
-        <v>5393</v>
+        <v>6835</v>
       </c>
       <c r="O14">
-        <v>6870</v>
+        <v>7393</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -2712,103 +2712,103 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="T14">
-        <v>6726</v>
+        <v>7169</v>
       </c>
       <c r="U14">
-        <v>198</v>
+        <v>274</v>
       </c>
       <c r="V14">
-        <v>113</v>
+        <v>260</v>
       </c>
       <c r="W14">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="X14">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="Y14">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="Z14">
-        <v>137</v>
+        <v>189</v>
       </c>
       <c r="AA14">
-        <v>167</v>
+        <v>108</v>
       </c>
       <c r="AB14">
-        <v>221</v>
+        <v>261</v>
       </c>
       <c r="AC14">
-        <v>139</v>
+        <v>195</v>
       </c>
       <c r="AD14">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="AE14">
-        <v>240</v>
+        <v>155</v>
       </c>
       <c r="AF14">
-        <v>148</v>
+        <v>234</v>
       </c>
       <c r="AG14">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="AH14">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="AI14">
-        <v>205</v>
+        <v>274</v>
       </c>
       <c r="AJ14">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="AK14">
-        <v>1361</v>
+        <v>523</v>
       </c>
       <c r="AL14">
-        <v>43</v>
+        <v>267</v>
       </c>
       <c r="AM14">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="AN14">
-        <v>792</v>
+        <v>440</v>
       </c>
       <c r="AO14">
-        <v>21</v>
+        <v>213</v>
       </c>
       <c r="AP14">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="AQ14">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="AR14">
-        <v>97</v>
+        <v>269</v>
       </c>
       <c r="AS14">
-        <v>171</v>
+        <v>266</v>
       </c>
       <c r="AT14">
-        <v>172</v>
+        <v>230</v>
       </c>
       <c r="AU14">
-        <v>167</v>
+        <v>53</v>
       </c>
       <c r="AV14">
-        <v>129</v>
+        <v>293</v>
       </c>
       <c r="AW14">
-        <v>133</v>
+        <v>187</v>
       </c>
       <c r="AX14">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AY14">
-        <v>176</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:51">
@@ -2831,10 +2831,10 @@
         <v>151</v>
       </c>
       <c r="G15">
-        <v>6306</v>
+        <v>6305</v>
       </c>
       <c r="H15">
-        <v>6306</v>
+        <v>6305</v>
       </c>
       <c r="I15">
         <v>5256</v>
@@ -2861,7 +2861,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>4800</v>
+        <v>960</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -3141,10 +3141,10 @@
         <v>36</v>
       </c>
       <c r="G17">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H17">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="I17">
         <v>1277</v>

--- a/Data/Sales_and_Stock.xlsx
+++ b/Data/Sales_and_Stock.xlsx
@@ -1436,10 +1436,10 @@
         <v>154</v>
       </c>
       <c r="G6">
-        <v>7059</v>
+        <v>7060</v>
       </c>
       <c r="H6">
-        <v>7059</v>
+        <v>7060</v>
       </c>
       <c r="I6">
         <v>5460</v>
@@ -1746,10 +1746,10 @@
         <v>28</v>
       </c>
       <c r="G8">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="H8">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="I8">
         <v>894</v>
@@ -2831,10 +2831,10 @@
         <v>151</v>
       </c>
       <c r="G15">
-        <v>6305</v>
+        <v>6306</v>
       </c>
       <c r="H15">
-        <v>6305</v>
+        <v>6306</v>
       </c>
       <c r="I15">
         <v>5256</v>
@@ -3141,10 +3141,10 @@
         <v>36</v>
       </c>
       <c r="G17">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="H17">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="I17">
         <v>1277</v>

--- a/Data/Sales_and_Stock.xlsx
+++ b/Data/Sales_and_Stock.xlsx
@@ -271,18 +271,18 @@
     <t>Augment 1.2g IV Injection 1's</t>
   </si>
   <si>
+    <t>Augment 100ml PFS</t>
+  </si>
+  <si>
+    <t>Augment 1gm Tablet 12's</t>
+  </si>
+  <si>
     <t>Augment 375 Tablet 18's</t>
   </si>
   <si>
-    <t>Augment 100ml PFS</t>
-  </si>
-  <si>
     <t>Augment 625 Tablet 18's</t>
   </si>
   <si>
-    <t>Augment 1gm Tablet 12's</t>
-  </si>
-  <si>
     <t>Biltin 20mg Tablet 20's</t>
   </si>
   <si>
@@ -292,54 +292,54 @@
     <t>Desodin 5mg Tablet</t>
   </si>
   <si>
+    <t>Dinafex 50ml Suspension</t>
+  </si>
+  <si>
+    <t>Dinafex 60mg FC Tablet 40's</t>
+  </si>
+  <si>
     <t>Dinafex 180mg FC Tablet 40's</t>
   </si>
   <si>
     <t>Dinafex 120mg FC Tablet 40's</t>
   </si>
   <si>
-    <t>Dinafex 50ml Suspension</t>
-  </si>
-  <si>
-    <t>Dinafex 60mg FC Tablet 40's</t>
-  </si>
-  <si>
     <t>Dorenta 100ml Syrup</t>
   </si>
   <si>
     <t>Etorix 60mg Tablet 50's</t>
   </si>
   <si>
+    <t>Etorix 120mg Tablet 30's</t>
+  </si>
+  <si>
     <t>Etorix 90mg Tablet 40's</t>
   </si>
   <si>
-    <t>Etorix 120mg Tablet 30's</t>
+    <t>Fenobac 5mg Tablet</t>
   </si>
   <si>
     <t>Fenobac 10mg Tablet</t>
   </si>
   <si>
-    <t>Fenobac 5mg Tablet</t>
-  </si>
-  <si>
     <t>Flucloxin 250mg Capsule</t>
   </si>
   <si>
+    <t>Flucloxin 500mg Capsule 40's</t>
+  </si>
+  <si>
     <t>Flucloxin 500mg IM/IV Injection</t>
   </si>
   <si>
     <t>Flucloxin 100ml Dry Suspension</t>
   </si>
   <si>
-    <t>Flucloxin 500mg Capsule 40's</t>
+    <t>Ketonic 10mg Tablet - 30's</t>
   </si>
   <si>
     <t>Ketonic 60mg IM Injection</t>
   </si>
   <si>
-    <t>Ketonic 10mg Tablet - 30's</t>
-  </si>
-  <si>
     <t>Ketonic 30mg IM/IV Injection</t>
   </si>
   <si>
@@ -349,15 +349,15 @@
     <t>Levomax 500mg Tablet - 20's</t>
   </si>
   <si>
+    <t>Lindamax 25ml Lotion</t>
+  </si>
+  <si>
+    <t>Lindamax Plus 10gm Gel</t>
+  </si>
+  <si>
     <t>Lindamax 150mg Capsule</t>
   </si>
   <si>
-    <t>Lindamax 25ml Lotion</t>
-  </si>
-  <si>
-    <t>Lindamax Plus 10gm Gel</t>
-  </si>
-  <si>
     <t>Lindamax 300mg Capsule</t>
   </si>
   <si>
@@ -370,39 +370,39 @@
     <t>Nabumet 500mg FC Tab 30's</t>
   </si>
   <si>
+    <t>Naprox Plus 500mg Tablet - 36's</t>
+  </si>
+  <si>
+    <t>Naprox Plus 375mg Tablet - 30's</t>
+  </si>
+  <si>
+    <t>Naprox 15gm Gel</t>
+  </si>
+  <si>
     <t>Naprox 500mg Tablet</t>
   </si>
   <si>
-    <t>Naprox Plus 500mg Tablet - 36's</t>
-  </si>
-  <si>
-    <t>Naprox 15gm Gel</t>
-  </si>
-  <si>
-    <t>Naprox Plus 375mg Tablet - 30's</t>
+    <t>Naprox 250mg Tablet</t>
   </si>
   <si>
     <t>Naprox 50ml Suspension</t>
   </si>
   <si>
-    <t>Naprox 250mg Tablet</t>
-  </si>
-  <si>
     <t>Ontin 10mg Tablet</t>
   </si>
   <si>
     <t>Ontin 60ml Syrup</t>
   </si>
   <si>
+    <t>Oradin FT 10mg Tablet</t>
+  </si>
+  <si>
     <t>Oradin 60ml Suspension</t>
   </si>
   <si>
     <t>Oradin 10mg Tablet</t>
   </si>
   <si>
-    <t>Oradin FT 10mg Tablet</t>
-  </si>
-  <si>
     <t>Osticare FC Tab Container 30's</t>
   </si>
   <si>
@@ -412,51 +412,51 @@
     <t>Paino 100mg Tablet</t>
   </si>
   <si>
+    <t>Quinox 100ml IV Infusion</t>
+  </si>
+  <si>
+    <t>Quinox 250mg Tablet</t>
+  </si>
+  <si>
+    <t>Quinox 500mg Tablet (40's)</t>
+  </si>
+  <si>
+    <t>Quinox 500mg Tablet - 20's</t>
+  </si>
+  <si>
     <t>Quinox 750mg Tablet</t>
   </si>
   <si>
-    <t>Quinox 250mg Tablet</t>
-  </si>
-  <si>
-    <t>Quinox 500mg Tablet - 20's</t>
-  </si>
-  <si>
-    <t>Quinox 100ml IV Infusion</t>
-  </si>
-  <si>
-    <t>Quinox 500mg Tablet (40's)</t>
-  </si>
-  <si>
     <t>Quinox DS 60ml Pellets for Suspension</t>
   </si>
   <si>
+    <t>Rupaday Oral Solution 60ml</t>
+  </si>
+  <si>
     <t>Rupaday 10mg Tablet 30's</t>
   </si>
   <si>
-    <t>Rupaday Oral Solution 60ml</t>
+    <t>Sk-Mox 15ml P/D</t>
+  </si>
+  <si>
+    <t>Sk-Mox DS 100ml Dry Suspension</t>
   </si>
   <si>
     <t>Sk-Mox 500mg Capsule 50's</t>
   </si>
   <si>
-    <t>Sk-Mox DS 100ml Dry Suspension</t>
-  </si>
-  <si>
-    <t>Sk-Mox 15ml P/D</t>
-  </si>
-  <si>
     <t>Sk-Mox 250mg Capsule</t>
   </si>
   <si>
     <t>Sk-Mox 100ml Dry Suspension</t>
   </si>
   <si>
+    <t>Stiba 30ml Syrup</t>
+  </si>
+  <si>
     <t>Stiba 10mg Tablet - 30's</t>
   </si>
   <si>
-    <t>Stiba 30ml Syrup</t>
-  </si>
-  <si>
     <t>Sulidac 100mg Tablet 50's</t>
   </si>
   <si>
@@ -493,30 +493,30 @@
     <t>Xenthol 30 Cream</t>
   </si>
   <si>
+    <t>Zithrox 250mg Tablet - 12's</t>
+  </si>
+  <si>
     <t>Zithrox 50ml Powder for Suspension</t>
   </si>
   <si>
     <t>Zithrox 20ml Powder for Suspension</t>
   </si>
   <si>
+    <t>Zithrox 35ml Dry Suspension</t>
+  </si>
+  <si>
     <t>Zithrox 500mg Tablet - 12's</t>
   </si>
   <si>
-    <t>Zithrox 250mg Tablet - 12's</t>
-  </si>
-  <si>
-    <t>Zithrox 35ml Dry Suspension</t>
-  </si>
-  <si>
     <t>1's</t>
   </si>
   <si>
+    <t>12's</t>
+  </si>
+  <si>
     <t>18's</t>
   </si>
   <si>
-    <t>12's</t>
-  </si>
-  <si>
     <t>20's</t>
   </si>
   <si>
@@ -526,12 +526,12 @@
     <t>50 's</t>
   </si>
   <si>
+    <t>50 ml</t>
+  </si>
+  <si>
     <t>40's</t>
   </si>
   <si>
-    <t>50 ml</t>
-  </si>
-  <si>
     <t>100 ml</t>
   </si>
   <si>
@@ -604,10 +604,10 @@
     <t>20ml</t>
   </si>
   <si>
+    <t>35ml</t>
+  </si>
+  <si>
     <t>12 's</t>
-  </si>
-  <si>
-    <t>35ml</t>
   </si>
 </sst>
 </file>
@@ -1146,25 +1146,25 @@
         <v>110</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2126</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="I2">
         <v>310</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L2">
         <v>3305</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="N2">
         <v>6199</v>
@@ -1295,37 +1295,37 @@
         <v>85</v>
       </c>
       <c r="E3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F3">
-        <v>57</v>
+        <v>125</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>10665</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1066</v>
       </c>
       <c r="I3">
-        <v>112</v>
+        <v>323</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>1731</v>
+        <v>3776</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="N3">
-        <v>5060</v>
+        <v>21481</v>
       </c>
       <c r="O3">
-        <v>5172</v>
+        <v>21804</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -1334,106 +1334,106 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>4030</v>
+        <v>4905</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>7590</v>
       </c>
       <c r="T3">
-        <v>5035</v>
+        <v>21429</v>
       </c>
       <c r="U3">
-        <v>152</v>
+        <v>387</v>
       </c>
       <c r="V3">
-        <v>198</v>
+        <v>467</v>
       </c>
       <c r="W3">
-        <v>96</v>
+        <v>429</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1164</v>
       </c>
       <c r="Y3">
-        <v>10</v>
+        <v>657</v>
       </c>
       <c r="Z3">
-        <v>48</v>
+        <v>764</v>
       </c>
       <c r="AA3">
-        <v>99</v>
+        <v>471</v>
       </c>
       <c r="AB3">
-        <v>83</v>
+        <v>464</v>
       </c>
       <c r="AC3">
-        <v>199</v>
+        <v>313</v>
       </c>
       <c r="AD3">
-        <v>303</v>
+        <v>333</v>
       </c>
       <c r="AE3">
-        <v>268</v>
+        <v>891</v>
       </c>
       <c r="AF3">
-        <v>298</v>
+        <v>226</v>
       </c>
       <c r="AG3">
-        <v>164</v>
+        <v>229</v>
       </c>
       <c r="AH3">
-        <v>112</v>
+        <v>286</v>
       </c>
       <c r="AI3">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="AJ3">
-        <v>166</v>
+        <v>296</v>
       </c>
       <c r="AK3">
-        <v>196</v>
+        <v>8214</v>
       </c>
       <c r="AL3">
-        <v>245</v>
+        <v>674</v>
       </c>
       <c r="AM3">
-        <v>44</v>
+        <v>348</v>
       </c>
       <c r="AN3">
-        <v>155</v>
+        <v>501</v>
       </c>
       <c r="AO3">
-        <v>57</v>
+        <v>221</v>
       </c>
       <c r="AP3">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="AQ3">
-        <v>137</v>
+        <v>375</v>
       </c>
       <c r="AR3">
-        <v>178</v>
+        <v>281</v>
       </c>
       <c r="AS3">
-        <v>146</v>
+        <v>302</v>
       </c>
       <c r="AT3">
-        <v>194</v>
+        <v>351</v>
       </c>
       <c r="AU3">
-        <v>123</v>
+        <v>587</v>
       </c>
       <c r="AV3">
-        <v>267</v>
+        <v>578</v>
       </c>
       <c r="AW3">
-        <v>236</v>
+        <v>709</v>
       </c>
       <c r="AX3">
-        <v>198</v>
+        <v>306</v>
       </c>
       <c r="AY3">
-        <v>247</v>
+        <v>432</v>
       </c>
     </row>
     <row r="4" spans="1:51">
@@ -1450,37 +1450,37 @@
         <v>86</v>
       </c>
       <c r="E4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F4">
-        <v>125</v>
+        <v>58</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2133</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>213</v>
       </c>
       <c r="I4">
-        <v>323</v>
+        <v>93</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L4">
-        <v>3776</v>
+        <v>1760</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="N4">
-        <v>21481</v>
+        <v>4900</v>
       </c>
       <c r="O4">
-        <v>21804</v>
+        <v>4993</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1489,106 +1489,106 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>4905</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>7590</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>21429</v>
+        <v>4900</v>
       </c>
       <c r="U4">
-        <v>387</v>
+        <v>248</v>
       </c>
       <c r="V4">
-        <v>467</v>
+        <v>108</v>
       </c>
       <c r="W4">
-        <v>429</v>
+        <v>148</v>
       </c>
       <c r="X4">
-        <v>1164</v>
+        <v>340</v>
       </c>
       <c r="Y4">
-        <v>657</v>
+        <v>124</v>
       </c>
       <c r="Z4">
-        <v>764</v>
+        <v>173</v>
       </c>
       <c r="AA4">
-        <v>471</v>
+        <v>69</v>
       </c>
       <c r="AB4">
-        <v>464</v>
+        <v>61</v>
       </c>
       <c r="AC4">
-        <v>313</v>
+        <v>144</v>
       </c>
       <c r="AD4">
-        <v>333</v>
+        <v>69</v>
       </c>
       <c r="AE4">
-        <v>891</v>
+        <v>29</v>
       </c>
       <c r="AF4">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="AG4">
-        <v>229</v>
+        <v>172</v>
       </c>
       <c r="AH4">
-        <v>286</v>
+        <v>10</v>
       </c>
       <c r="AI4">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="AJ4">
-        <v>296</v>
+        <v>180</v>
       </c>
       <c r="AK4">
-        <v>8214</v>
+        <v>522</v>
       </c>
       <c r="AL4">
-        <v>674</v>
+        <v>542</v>
       </c>
       <c r="AM4">
-        <v>348</v>
+        <v>128</v>
       </c>
       <c r="AN4">
-        <v>501</v>
+        <v>234</v>
       </c>
       <c r="AO4">
-        <v>221</v>
+        <v>105</v>
       </c>
       <c r="AP4">
-        <v>423</v>
+        <v>169</v>
       </c>
       <c r="AQ4">
-        <v>375</v>
+        <v>93</v>
       </c>
       <c r="AR4">
-        <v>281</v>
+        <v>177</v>
       </c>
       <c r="AS4">
-        <v>302</v>
+        <v>118</v>
       </c>
       <c r="AT4">
-        <v>351</v>
+        <v>128</v>
       </c>
       <c r="AU4">
-        <v>587</v>
+        <v>56</v>
       </c>
       <c r="AV4">
-        <v>578</v>
+        <v>63</v>
       </c>
       <c r="AW4">
-        <v>709</v>
+        <v>112</v>
       </c>
       <c r="AX4">
-        <v>306</v>
+        <v>212</v>
       </c>
       <c r="AY4">
-        <v>432</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:51">
@@ -1605,37 +1605,37 @@
         <v>87</v>
       </c>
       <c r="E5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F5">
-        <v>307</v>
+        <v>57</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2133</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>213</v>
       </c>
       <c r="I5">
-        <v>430</v>
+        <v>112</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L5">
-        <v>9220</v>
+        <v>1731</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="N5">
-        <v>23599</v>
+        <v>5060</v>
       </c>
       <c r="O5">
-        <v>24029</v>
+        <v>5172</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1644,106 +1644,106 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <v>631</v>
+        <v>4030</v>
       </c>
       <c r="S5">
-        <v>1161</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>23038</v>
+        <v>5035</v>
       </c>
       <c r="U5">
-        <v>392</v>
+        <v>152</v>
       </c>
       <c r="V5">
-        <v>1100</v>
+        <v>198</v>
       </c>
       <c r="W5">
-        <v>960</v>
+        <v>96</v>
       </c>
       <c r="X5">
-        <v>1259</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>872</v>
+        <v>10</v>
       </c>
       <c r="Z5">
-        <v>1060</v>
+        <v>48</v>
       </c>
       <c r="AA5">
-        <v>705</v>
+        <v>99</v>
       </c>
       <c r="AB5">
-        <v>785</v>
+        <v>83</v>
       </c>
       <c r="AC5">
-        <v>712</v>
+        <v>199</v>
       </c>
       <c r="AD5">
-        <v>2251</v>
+        <v>303</v>
       </c>
       <c r="AE5">
-        <v>919</v>
+        <v>268</v>
       </c>
       <c r="AF5">
-        <v>638</v>
+        <v>298</v>
       </c>
       <c r="AG5">
-        <v>547</v>
+        <v>164</v>
       </c>
       <c r="AH5">
-        <v>399</v>
+        <v>112</v>
       </c>
       <c r="AI5">
-        <v>373</v>
+        <v>118</v>
       </c>
       <c r="AJ5">
-        <v>621</v>
+        <v>166</v>
       </c>
       <c r="AK5">
-        <v>1484</v>
+        <v>196</v>
       </c>
       <c r="AL5">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="AM5">
-        <v>469</v>
+        <v>44</v>
       </c>
       <c r="AN5">
-        <v>512</v>
+        <v>155</v>
       </c>
       <c r="AO5">
-        <v>502</v>
+        <v>57</v>
       </c>
       <c r="AP5">
-        <v>1542</v>
+        <v>435</v>
       </c>
       <c r="AQ5">
-        <v>991</v>
+        <v>137</v>
       </c>
       <c r="AR5">
-        <v>444</v>
+        <v>178</v>
       </c>
       <c r="AS5">
-        <v>740</v>
+        <v>146</v>
       </c>
       <c r="AT5">
-        <v>417</v>
+        <v>194</v>
       </c>
       <c r="AU5">
-        <v>955</v>
+        <v>123</v>
       </c>
       <c r="AV5">
-        <v>507</v>
+        <v>267</v>
       </c>
       <c r="AW5">
-        <v>404</v>
+        <v>236</v>
       </c>
       <c r="AX5">
-        <v>693</v>
+        <v>198</v>
       </c>
       <c r="AY5">
-        <v>543</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:51">
@@ -1763,34 +1763,34 @@
         <v>166</v>
       </c>
       <c r="F6">
-        <v>58</v>
+        <v>307</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>13331</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1333</v>
       </c>
       <c r="I6">
-        <v>93</v>
+        <v>430</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>1760</v>
+        <v>9220</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="N6">
-        <v>4900</v>
+        <v>23599</v>
       </c>
       <c r="O6">
-        <v>4993</v>
+        <v>24029</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1799,106 +1799,106 @@
         <v>0</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>631</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>1161</v>
       </c>
       <c r="T6">
-        <v>4900</v>
+        <v>23038</v>
       </c>
       <c r="U6">
-        <v>248</v>
+        <v>392</v>
       </c>
       <c r="V6">
-        <v>108</v>
+        <v>1100</v>
       </c>
       <c r="W6">
-        <v>148</v>
+        <v>960</v>
       </c>
       <c r="X6">
-        <v>340</v>
+        <v>1259</v>
       </c>
       <c r="Y6">
-        <v>124</v>
+        <v>872</v>
       </c>
       <c r="Z6">
-        <v>173</v>
+        <v>1060</v>
       </c>
       <c r="AA6">
-        <v>69</v>
+        <v>705</v>
       </c>
       <c r="AB6">
-        <v>61</v>
+        <v>785</v>
       </c>
       <c r="AC6">
-        <v>144</v>
+        <v>712</v>
       </c>
       <c r="AD6">
-        <v>69</v>
+        <v>2251</v>
       </c>
       <c r="AE6">
-        <v>29</v>
+        <v>919</v>
       </c>
       <c r="AF6">
-        <v>221</v>
+        <v>638</v>
       </c>
       <c r="AG6">
-        <v>172</v>
+        <v>547</v>
       </c>
       <c r="AH6">
-        <v>10</v>
+        <v>399</v>
       </c>
       <c r="AI6">
-        <v>167</v>
+        <v>373</v>
       </c>
       <c r="AJ6">
-        <v>180</v>
+        <v>621</v>
       </c>
       <c r="AK6">
-        <v>522</v>
+        <v>1484</v>
       </c>
       <c r="AL6">
-        <v>542</v>
+        <v>233</v>
       </c>
       <c r="AM6">
-        <v>128</v>
+        <v>469</v>
       </c>
       <c r="AN6">
-        <v>234</v>
+        <v>512</v>
       </c>
       <c r="AO6">
-        <v>105</v>
+        <v>502</v>
       </c>
       <c r="AP6">
-        <v>169</v>
+        <v>1542</v>
       </c>
       <c r="AQ6">
-        <v>93</v>
+        <v>991</v>
       </c>
       <c r="AR6">
-        <v>177</v>
+        <v>444</v>
       </c>
       <c r="AS6">
-        <v>118</v>
+        <v>740</v>
       </c>
       <c r="AT6">
-        <v>128</v>
+        <v>417</v>
       </c>
       <c r="AU6">
-        <v>56</v>
+        <v>955</v>
       </c>
       <c r="AV6">
-        <v>63</v>
+        <v>507</v>
       </c>
       <c r="AW6">
-        <v>112</v>
+        <v>404</v>
       </c>
       <c r="AX6">
-        <v>212</v>
+        <v>693</v>
       </c>
       <c r="AY6">
-        <v>71</v>
+        <v>543</v>
       </c>
     </row>
     <row r="7" spans="1:51">
@@ -1921,25 +1921,25 @@
         <v>1643</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>58000</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>5800</v>
       </c>
       <c r="I7">
         <v>3044</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L7">
         <v>49302</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="N7">
         <v>47054</v>
@@ -2383,40 +2383,40 @@
         <v>170</v>
       </c>
       <c r="F10">
-        <v>75</v>
+        <v>1091</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>53320</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>5332</v>
       </c>
       <c r="I10">
-        <v>121</v>
+        <v>1892</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>2269</v>
+        <v>32739</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="N10">
-        <v>1858</v>
+        <v>34113</v>
       </c>
       <c r="O10">
-        <v>1979</v>
+        <v>36005</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>317</v>
+        <v>404</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -2425,100 +2425,100 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>1918</v>
+        <v>35004</v>
       </c>
       <c r="U10">
-        <v>54</v>
+        <v>1288</v>
       </c>
       <c r="V10">
-        <v>25</v>
+        <v>757</v>
       </c>
       <c r="W10">
-        <v>30</v>
+        <v>553</v>
       </c>
       <c r="X10">
-        <v>93</v>
+        <v>1154</v>
       </c>
       <c r="Y10">
-        <v>71</v>
+        <v>1483</v>
       </c>
       <c r="Z10">
-        <v>95</v>
+        <v>1042</v>
       </c>
       <c r="AA10">
-        <v>35</v>
+        <v>1118</v>
       </c>
       <c r="AB10">
-        <v>70</v>
+        <v>749</v>
       </c>
       <c r="AC10">
-        <v>354</v>
+        <v>492</v>
       </c>
       <c r="AD10">
-        <v>120</v>
+        <v>1273</v>
       </c>
       <c r="AE10">
-        <v>5</v>
+        <v>1071</v>
       </c>
       <c r="AF10">
-        <v>31</v>
+        <v>726</v>
       </c>
       <c r="AG10">
-        <v>38</v>
+        <v>1097</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>522</v>
       </c>
       <c r="AI10">
-        <v>62</v>
+        <v>2067</v>
       </c>
       <c r="AJ10">
-        <v>66</v>
+        <v>1496</v>
       </c>
       <c r="AK10">
-        <v>36</v>
+        <v>1560</v>
       </c>
       <c r="AL10">
-        <v>128</v>
+        <v>1271</v>
       </c>
       <c r="AM10">
-        <v>58</v>
+        <v>2447</v>
       </c>
       <c r="AN10">
-        <v>92</v>
+        <v>452</v>
       </c>
       <c r="AO10">
-        <v>45</v>
+        <v>1002</v>
       </c>
       <c r="AP10">
-        <v>23</v>
+        <v>894</v>
       </c>
       <c r="AQ10">
-        <v>61</v>
+        <v>1001</v>
       </c>
       <c r="AR10">
-        <v>20</v>
+        <v>526</v>
       </c>
       <c r="AS10">
-        <v>42</v>
+        <v>1473</v>
       </c>
       <c r="AT10">
-        <v>52</v>
+        <v>1616</v>
       </c>
       <c r="AU10">
-        <v>53</v>
+        <v>613</v>
       </c>
       <c r="AV10">
-        <v>113</v>
+        <v>1638</v>
       </c>
       <c r="AW10">
-        <v>0</v>
+        <v>1635</v>
       </c>
       <c r="AX10">
-        <v>68</v>
+        <v>1383</v>
       </c>
       <c r="AY10">
-        <v>39</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="11" spans="1:51">
@@ -2535,145 +2535,145 @@
         <v>93</v>
       </c>
       <c r="E11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F11">
-        <v>557</v>
+        <v>71</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1808</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="I11">
-        <v>687</v>
+        <v>103</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L11">
-        <v>16714</v>
+        <v>2135</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="N11">
-        <v>11105</v>
+        <v>5830</v>
       </c>
       <c r="O11">
-        <v>11792</v>
+        <v>5933</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3308</v>
+        <v>561</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="T11">
-        <v>11371</v>
+        <v>5854</v>
       </c>
       <c r="U11">
-        <v>541</v>
+        <v>239</v>
       </c>
       <c r="V11">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="W11">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="X11">
-        <v>413</v>
+        <v>172</v>
       </c>
       <c r="Y11">
-        <v>645</v>
+        <v>206</v>
       </c>
       <c r="Z11">
-        <v>694</v>
+        <v>313</v>
       </c>
       <c r="AA11">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="AB11">
-        <v>189</v>
+        <v>113</v>
       </c>
       <c r="AC11">
-        <v>158</v>
+        <v>289</v>
       </c>
       <c r="AD11">
-        <v>404</v>
+        <v>171</v>
       </c>
       <c r="AE11">
+        <v>236</v>
+      </c>
+      <c r="AF11">
+        <v>98</v>
+      </c>
+      <c r="AG11">
+        <v>134</v>
+      </c>
+      <c r="AH11">
+        <v>91</v>
+      </c>
+      <c r="AI11">
+        <v>89</v>
+      </c>
+      <c r="AJ11">
+        <v>168</v>
+      </c>
+      <c r="AK11">
+        <v>605</v>
+      </c>
+      <c r="AL11">
+        <v>268</v>
+      </c>
+      <c r="AM11">
+        <v>121</v>
+      </c>
+      <c r="AN11">
+        <v>311</v>
+      </c>
+      <c r="AO11">
+        <v>177</v>
+      </c>
+      <c r="AP11">
+        <v>389</v>
+      </c>
+      <c r="AQ11">
+        <v>79</v>
+      </c>
+      <c r="AR11">
+        <v>85</v>
+      </c>
+      <c r="AS11">
+        <v>85</v>
+      </c>
+      <c r="AT11">
+        <v>203</v>
+      </c>
+      <c r="AU11">
+        <v>150</v>
+      </c>
+      <c r="AV11">
         <v>114</v>
       </c>
-      <c r="AF11">
-        <v>314</v>
-      </c>
-      <c r="AG11">
-        <v>708</v>
-      </c>
-      <c r="AH11">
-        <v>411</v>
-      </c>
-      <c r="AI11">
-        <v>768</v>
-      </c>
-      <c r="AJ11">
-        <v>561</v>
-      </c>
-      <c r="AK11">
-        <v>416</v>
-      </c>
-      <c r="AL11">
-        <v>325</v>
-      </c>
-      <c r="AM11">
-        <v>123</v>
-      </c>
-      <c r="AN11">
-        <v>281</v>
-      </c>
-      <c r="AO11">
-        <v>666</v>
-      </c>
-      <c r="AP11">
-        <v>4</v>
-      </c>
-      <c r="AQ11">
-        <v>421</v>
-      </c>
-      <c r="AR11">
-        <v>234</v>
-      </c>
-      <c r="AS11">
-        <v>514</v>
-      </c>
-      <c r="AT11">
-        <v>441</v>
-      </c>
-      <c r="AU11">
-        <v>197</v>
-      </c>
-      <c r="AV11">
-        <v>441</v>
-      </c>
       <c r="AW11">
-        <v>157</v>
+        <v>107</v>
       </c>
       <c r="AX11">
-        <v>581</v>
+        <v>218</v>
       </c>
       <c r="AY11">
-        <v>505</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:51">
@@ -2693,40 +2693,40 @@
         <v>171</v>
       </c>
       <c r="F12">
-        <v>1091</v>
+        <v>75</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>2269</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="I12">
-        <v>1892</v>
+        <v>121</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L12">
-        <v>32739</v>
+        <v>2269</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="N12">
-        <v>34113</v>
+        <v>1858</v>
       </c>
       <c r="O12">
-        <v>36005</v>
+        <v>1979</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>404</v>
+        <v>317</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -2735,100 +2735,100 @@
         <v>0</v>
       </c>
       <c r="T12">
-        <v>35004</v>
+        <v>1918</v>
       </c>
       <c r="U12">
-        <v>1288</v>
+        <v>54</v>
       </c>
       <c r="V12">
-        <v>757</v>
+        <v>25</v>
       </c>
       <c r="W12">
-        <v>553</v>
+        <v>30</v>
       </c>
       <c r="X12">
-        <v>1154</v>
+        <v>93</v>
       </c>
       <c r="Y12">
-        <v>1483</v>
+        <v>71</v>
       </c>
       <c r="Z12">
-        <v>1042</v>
+        <v>95</v>
       </c>
       <c r="AA12">
-        <v>1118</v>
+        <v>35</v>
       </c>
       <c r="AB12">
-        <v>749</v>
+        <v>70</v>
       </c>
       <c r="AC12">
-        <v>492</v>
+        <v>354</v>
       </c>
       <c r="AD12">
-        <v>1273</v>
+        <v>120</v>
       </c>
       <c r="AE12">
-        <v>1071</v>
+        <v>5</v>
       </c>
       <c r="AF12">
-        <v>726</v>
+        <v>31</v>
       </c>
       <c r="AG12">
-        <v>1097</v>
+        <v>38</v>
       </c>
       <c r="AH12">
-        <v>522</v>
+        <v>0</v>
       </c>
       <c r="AI12">
-        <v>2067</v>
+        <v>62</v>
       </c>
       <c r="AJ12">
-        <v>1496</v>
+        <v>66</v>
       </c>
       <c r="AK12">
-        <v>1560</v>
+        <v>36</v>
       </c>
       <c r="AL12">
-        <v>1271</v>
+        <v>128</v>
       </c>
       <c r="AM12">
-        <v>2447</v>
+        <v>58</v>
       </c>
       <c r="AN12">
-        <v>452</v>
+        <v>92</v>
       </c>
       <c r="AO12">
-        <v>1002</v>
+        <v>45</v>
       </c>
       <c r="AP12">
-        <v>894</v>
+        <v>23</v>
       </c>
       <c r="AQ12">
-        <v>1001</v>
+        <v>61</v>
       </c>
       <c r="AR12">
-        <v>526</v>
+        <v>20</v>
       </c>
       <c r="AS12">
-        <v>1473</v>
+        <v>42</v>
       </c>
       <c r="AT12">
-        <v>1616</v>
+        <v>52</v>
       </c>
       <c r="AU12">
-        <v>613</v>
+        <v>53</v>
       </c>
       <c r="AV12">
-        <v>1638</v>
+        <v>113</v>
       </c>
       <c r="AW12">
-        <v>1635</v>
+        <v>0</v>
       </c>
       <c r="AX12">
-        <v>1383</v>
+        <v>68</v>
       </c>
       <c r="AY12">
-        <v>1606</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:51">
@@ -2845,145 +2845,145 @@
         <v>95</v>
       </c>
       <c r="E13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F13">
-        <v>71</v>
+        <v>557</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>15462</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1546</v>
       </c>
       <c r="I13">
-        <v>103</v>
+        <v>687</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L13">
-        <v>2135</v>
+        <v>16714</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="N13">
-        <v>5830</v>
+        <v>11105</v>
       </c>
       <c r="O13">
-        <v>5933</v>
+        <v>11792</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
+        <v>3308</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>11371</v>
+      </c>
+      <c r="U13">
+        <v>541</v>
+      </c>
+      <c r="V13">
+        <v>132</v>
+      </c>
+      <c r="W13">
+        <v>235</v>
+      </c>
+      <c r="X13">
+        <v>413</v>
+      </c>
+      <c r="Y13">
+        <v>645</v>
+      </c>
+      <c r="Z13">
+        <v>694</v>
+      </c>
+      <c r="AA13">
+        <v>199</v>
+      </c>
+      <c r="AB13">
+        <v>189</v>
+      </c>
+      <c r="AC13">
+        <v>158</v>
+      </c>
+      <c r="AD13">
+        <v>404</v>
+      </c>
+      <c r="AE13">
+        <v>114</v>
+      </c>
+      <c r="AF13">
+        <v>314</v>
+      </c>
+      <c r="AG13">
+        <v>708</v>
+      </c>
+      <c r="AH13">
+        <v>411</v>
+      </c>
+      <c r="AI13">
+        <v>768</v>
+      </c>
+      <c r="AJ13">
         <v>561</v>
       </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>160</v>
-      </c>
-      <c r="T13">
-        <v>5854</v>
-      </c>
-      <c r="U13">
-        <v>239</v>
-      </c>
-      <c r="V13">
-        <v>90</v>
-      </c>
-      <c r="W13">
-        <v>214</v>
-      </c>
-      <c r="X13">
-        <v>172</v>
-      </c>
-      <c r="Y13">
-        <v>206</v>
-      </c>
-      <c r="Z13">
-        <v>313</v>
-      </c>
-      <c r="AA13">
-        <v>226</v>
-      </c>
-      <c r="AB13">
-        <v>113</v>
-      </c>
-      <c r="AC13">
-        <v>289</v>
-      </c>
-      <c r="AD13">
-        <v>171</v>
-      </c>
-      <c r="AE13">
-        <v>236</v>
-      </c>
-      <c r="AF13">
-        <v>98</v>
-      </c>
-      <c r="AG13">
-        <v>134</v>
-      </c>
-      <c r="AH13">
-        <v>91</v>
-      </c>
-      <c r="AI13">
-        <v>89</v>
-      </c>
-      <c r="AJ13">
-        <v>168</v>
-      </c>
       <c r="AK13">
-        <v>605</v>
+        <v>416</v>
       </c>
       <c r="AL13">
-        <v>268</v>
+        <v>325</v>
       </c>
       <c r="AM13">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AN13">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="AO13">
-        <v>177</v>
+        <v>666</v>
       </c>
       <c r="AP13">
-        <v>389</v>
+        <v>4</v>
       </c>
       <c r="AQ13">
-        <v>79</v>
+        <v>421</v>
       </c>
       <c r="AR13">
-        <v>85</v>
+        <v>234</v>
       </c>
       <c r="AS13">
-        <v>85</v>
+        <v>514</v>
       </c>
       <c r="AT13">
-        <v>203</v>
+        <v>441</v>
       </c>
       <c r="AU13">
-        <v>150</v>
+        <v>197</v>
       </c>
       <c r="AV13">
-        <v>114</v>
+        <v>441</v>
       </c>
       <c r="AW13">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="AX13">
-        <v>218</v>
+        <v>581</v>
       </c>
       <c r="AY13">
-        <v>172</v>
+        <v>505</v>
       </c>
     </row>
     <row r="14" spans="1:51">
@@ -3006,25 +3006,25 @@
         <v>834</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>31991</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>3199</v>
       </c>
       <c r="I14">
         <v>1414</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L14">
         <v>25025</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="N14">
         <v>90882</v>
@@ -3161,25 +3161,25 @@
         <v>1147</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>43180</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>4318</v>
       </c>
       <c r="I15">
         <v>1407</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>34423</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="N15">
         <v>33465</v>
@@ -3310,145 +3310,145 @@
         <v>98</v>
       </c>
       <c r="E16" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F16">
-        <v>2485</v>
+        <v>2622</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>85749</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>8574</v>
       </c>
       <c r="I16">
-        <v>3295</v>
+        <v>3299</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>74574</v>
+        <v>78664</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="N16">
-        <v>127669</v>
+        <v>92371</v>
       </c>
       <c r="O16">
-        <v>130964</v>
+        <v>95670</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12445</v>
+        <v>24221</v>
       </c>
       <c r="R16">
         <v>0</v>
       </c>
       <c r="S16">
-        <v>6600</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>126738</v>
+        <v>92380</v>
       </c>
       <c r="U16">
-        <v>4171</v>
+        <v>4347</v>
       </c>
       <c r="V16">
-        <v>8532</v>
+        <v>6033</v>
       </c>
       <c r="W16">
-        <v>3539</v>
+        <v>2296</v>
       </c>
       <c r="X16">
-        <v>3464</v>
+        <v>3179</v>
       </c>
       <c r="Y16">
-        <v>3173</v>
+        <v>1650</v>
       </c>
       <c r="Z16">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="AA16">
-        <v>2796</v>
+        <v>3119</v>
       </c>
       <c r="AB16">
-        <v>4716</v>
+        <v>3389</v>
       </c>
       <c r="AC16">
-        <v>6401</v>
+        <v>3571</v>
       </c>
       <c r="AD16">
-        <v>5273</v>
+        <v>4036</v>
       </c>
       <c r="AE16">
-        <v>5365</v>
+        <v>3333</v>
       </c>
       <c r="AF16">
-        <v>2879</v>
+        <v>101</v>
       </c>
       <c r="AG16">
-        <v>2394</v>
+        <v>1163</v>
       </c>
       <c r="AH16">
-        <v>5510</v>
+        <v>3132</v>
       </c>
       <c r="AI16">
-        <v>2765</v>
+        <v>2618</v>
       </c>
       <c r="AJ16">
-        <v>3911</v>
+        <v>3629</v>
       </c>
       <c r="AK16">
-        <v>9387</v>
+        <v>951</v>
       </c>
       <c r="AL16">
-        <v>1928</v>
+        <v>5651</v>
       </c>
       <c r="AM16">
-        <v>4148</v>
+        <v>3373</v>
       </c>
       <c r="AN16">
-        <v>1932</v>
+        <v>2838</v>
       </c>
       <c r="AO16">
-        <v>7072</v>
+        <v>5193</v>
       </c>
       <c r="AP16">
-        <v>4134</v>
+        <v>2325</v>
       </c>
       <c r="AQ16">
-        <v>4226</v>
+        <v>3290</v>
       </c>
       <c r="AR16">
-        <v>3921</v>
+        <v>5444</v>
       </c>
       <c r="AS16">
-        <v>3479</v>
+        <v>1481</v>
       </c>
       <c r="AT16">
-        <v>4629</v>
+        <v>2112</v>
       </c>
       <c r="AU16">
-        <v>3330</v>
+        <v>2990</v>
       </c>
       <c r="AV16">
-        <v>5460</v>
+        <v>3218</v>
       </c>
       <c r="AW16">
-        <v>2462</v>
+        <v>2973</v>
       </c>
       <c r="AX16">
-        <v>2931</v>
+        <v>3753</v>
       </c>
       <c r="AY16">
-        <v>5088</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="17" spans="1:51">
@@ -3465,145 +3465,145 @@
         <v>99</v>
       </c>
       <c r="E17" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F17">
-        <v>2622</v>
+        <v>2485</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>85502</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>8550</v>
       </c>
       <c r="I17">
-        <v>3299</v>
+        <v>3295</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>78664</v>
+        <v>74574</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="N17">
-        <v>92371</v>
+        <v>127669</v>
       </c>
       <c r="O17">
-        <v>95670</v>
+        <v>130964</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>24221</v>
+        <v>12445</v>
       </c>
       <c r="R17">
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="T17">
-        <v>92380</v>
+        <v>126738</v>
       </c>
       <c r="U17">
-        <v>4347</v>
+        <v>4171</v>
       </c>
       <c r="V17">
-        <v>6033</v>
+        <v>8532</v>
       </c>
       <c r="W17">
-        <v>2296</v>
+        <v>3539</v>
       </c>
       <c r="X17">
-        <v>3179</v>
+        <v>3464</v>
       </c>
       <c r="Y17">
-        <v>1650</v>
+        <v>3173</v>
       </c>
       <c r="Z17">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="AA17">
-        <v>3119</v>
+        <v>2796</v>
       </c>
       <c r="AB17">
-        <v>3389</v>
+        <v>4716</v>
       </c>
       <c r="AC17">
-        <v>3571</v>
+        <v>6401</v>
       </c>
       <c r="AD17">
-        <v>4036</v>
+        <v>5273</v>
       </c>
       <c r="AE17">
-        <v>3333</v>
+        <v>5365</v>
       </c>
       <c r="AF17">
-        <v>101</v>
+        <v>2879</v>
       </c>
       <c r="AG17">
-        <v>1163</v>
+        <v>2394</v>
       </c>
       <c r="AH17">
-        <v>3132</v>
+        <v>5510</v>
       </c>
       <c r="AI17">
-        <v>2618</v>
+        <v>2765</v>
       </c>
       <c r="AJ17">
-        <v>3629</v>
+        <v>3911</v>
       </c>
       <c r="AK17">
-        <v>951</v>
+        <v>9387</v>
       </c>
       <c r="AL17">
-        <v>5651</v>
+        <v>1928</v>
       </c>
       <c r="AM17">
-        <v>3373</v>
+        <v>4148</v>
       </c>
       <c r="AN17">
-        <v>2838</v>
+        <v>1932</v>
       </c>
       <c r="AO17">
-        <v>5193</v>
+        <v>7072</v>
       </c>
       <c r="AP17">
-        <v>2325</v>
+        <v>4134</v>
       </c>
       <c r="AQ17">
-        <v>3290</v>
+        <v>4226</v>
       </c>
       <c r="AR17">
-        <v>5444</v>
+        <v>3921</v>
       </c>
       <c r="AS17">
-        <v>1481</v>
+        <v>3479</v>
       </c>
       <c r="AT17">
-        <v>2112</v>
+        <v>4629</v>
       </c>
       <c r="AU17">
-        <v>2990</v>
+        <v>3330</v>
       </c>
       <c r="AV17">
-        <v>3218</v>
+        <v>5460</v>
       </c>
       <c r="AW17">
-        <v>2973</v>
+        <v>2462</v>
       </c>
       <c r="AX17">
-        <v>3753</v>
+        <v>2931</v>
       </c>
       <c r="AY17">
-        <v>2535</v>
+        <v>5088</v>
       </c>
     </row>
     <row r="18" spans="1:51">
@@ -3620,145 +3620,145 @@
         <v>100</v>
       </c>
       <c r="E18" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F18">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1662</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="I18">
-        <v>189</v>
+        <v>79</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L18">
-        <v>2969</v>
+        <v>1232</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="N18">
-        <v>16030</v>
+        <v>9733</v>
       </c>
       <c r="O18">
-        <v>16219</v>
+        <v>9812</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>3516</v>
+        <v>6005</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>7080</v>
+        <v>1392</v>
       </c>
       <c r="T18">
-        <v>16083</v>
+        <v>9725</v>
       </c>
       <c r="U18">
-        <v>463</v>
+        <v>219</v>
       </c>
       <c r="V18">
-        <v>394</v>
+        <v>217</v>
       </c>
       <c r="W18">
-        <v>255</v>
+        <v>294</v>
       </c>
       <c r="X18">
-        <v>213</v>
+        <v>127</v>
       </c>
       <c r="Y18">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="Z18">
-        <v>419</v>
+        <v>267</v>
       </c>
       <c r="AA18">
-        <v>402</v>
+        <v>289</v>
       </c>
       <c r="AB18">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="AC18">
-        <v>167</v>
+        <v>270</v>
       </c>
       <c r="AD18">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="AE18">
+        <v>137</v>
+      </c>
+      <c r="AF18">
+        <v>166</v>
+      </c>
+      <c r="AG18">
+        <v>225</v>
+      </c>
+      <c r="AH18">
+        <v>389</v>
+      </c>
+      <c r="AI18">
+        <v>150</v>
+      </c>
+      <c r="AJ18">
+        <v>187</v>
+      </c>
+      <c r="AK18">
+        <v>2151</v>
+      </c>
+      <c r="AL18">
+        <v>372</v>
+      </c>
+      <c r="AM18">
+        <v>298</v>
+      </c>
+      <c r="AN18">
+        <v>689</v>
+      </c>
+      <c r="AO18">
+        <v>334</v>
+      </c>
+      <c r="AP18">
+        <v>542</v>
+      </c>
+      <c r="AQ18">
+        <v>87</v>
+      </c>
+      <c r="AR18">
+        <v>278</v>
+      </c>
+      <c r="AS18">
         <v>202</v>
       </c>
-      <c r="AF18">
-        <v>171</v>
-      </c>
-      <c r="AG18">
-        <v>382</v>
-      </c>
-      <c r="AH18">
-        <v>93</v>
-      </c>
-      <c r="AI18">
-        <v>147</v>
-      </c>
-      <c r="AJ18">
-        <v>390</v>
-      </c>
-      <c r="AK18">
-        <v>7764</v>
-      </c>
-      <c r="AL18">
-        <v>423</v>
-      </c>
-      <c r="AM18">
-        <v>307</v>
-      </c>
-      <c r="AN18">
-        <v>400</v>
-      </c>
-      <c r="AO18">
-        <v>229</v>
-      </c>
-      <c r="AP18">
-        <v>281</v>
-      </c>
-      <c r="AQ18">
-        <v>136</v>
-      </c>
-      <c r="AR18">
-        <v>122</v>
-      </c>
-      <c r="AS18">
-        <v>644</v>
-      </c>
       <c r="AT18">
-        <v>256</v>
+        <v>380</v>
       </c>
       <c r="AU18">
-        <v>546</v>
+        <v>124</v>
       </c>
       <c r="AV18">
-        <v>184</v>
+        <v>116</v>
       </c>
       <c r="AW18">
-        <v>362</v>
+        <v>177</v>
       </c>
       <c r="AX18">
-        <v>68</v>
+        <v>349</v>
       </c>
       <c r="AY18">
-        <v>327</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:51">
@@ -3775,145 +3775,145 @@
         <v>101</v>
       </c>
       <c r="E19" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="F19">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>4266</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>426</v>
       </c>
       <c r="I19">
-        <v>79</v>
+        <v>189</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L19">
-        <v>1232</v>
+        <v>2969</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="N19">
-        <v>9733</v>
+        <v>16030</v>
       </c>
       <c r="O19">
-        <v>9812</v>
+        <v>16219</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>6005</v>
+        <v>3516</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>1392</v>
+        <v>7080</v>
       </c>
       <c r="T19">
-        <v>9725</v>
+        <v>16083</v>
       </c>
       <c r="U19">
-        <v>219</v>
+        <v>463</v>
       </c>
       <c r="V19">
-        <v>217</v>
+        <v>394</v>
       </c>
       <c r="W19">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="X19">
-        <v>127</v>
+        <v>213</v>
       </c>
       <c r="Y19">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="Z19">
-        <v>267</v>
+        <v>419</v>
       </c>
       <c r="AA19">
-        <v>289</v>
+        <v>402</v>
       </c>
       <c r="AB19">
-        <v>252</v>
+        <v>184</v>
       </c>
       <c r="AC19">
-        <v>270</v>
+        <v>167</v>
       </c>
       <c r="AD19">
+        <v>214</v>
+      </c>
+      <c r="AE19">
         <v>202</v>
       </c>
-      <c r="AE19">
-        <v>137</v>
-      </c>
       <c r="AF19">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="AG19">
-        <v>225</v>
+        <v>382</v>
       </c>
       <c r="AH19">
-        <v>389</v>
+        <v>93</v>
       </c>
       <c r="AI19">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AJ19">
-        <v>187</v>
+        <v>390</v>
       </c>
       <c r="AK19">
-        <v>2151</v>
+        <v>7764</v>
       </c>
       <c r="AL19">
-        <v>372</v>
+        <v>423</v>
       </c>
       <c r="AM19">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="AN19">
-        <v>689</v>
+        <v>400</v>
       </c>
       <c r="AO19">
-        <v>334</v>
+        <v>229</v>
       </c>
       <c r="AP19">
-        <v>542</v>
+        <v>281</v>
       </c>
       <c r="AQ19">
-        <v>87</v>
+        <v>136</v>
       </c>
       <c r="AR19">
-        <v>278</v>
+        <v>122</v>
       </c>
       <c r="AS19">
-        <v>202</v>
+        <v>644</v>
       </c>
       <c r="AT19">
-        <v>380</v>
+        <v>256</v>
       </c>
       <c r="AU19">
-        <v>124</v>
+        <v>546</v>
       </c>
       <c r="AV19">
-        <v>116</v>
+        <v>184</v>
       </c>
       <c r="AW19">
-        <v>177</v>
+        <v>362</v>
       </c>
       <c r="AX19">
-        <v>349</v>
+        <v>68</v>
       </c>
       <c r="AY19">
-        <v>198</v>
+        <v>327</v>
       </c>
     </row>
     <row r="20" spans="1:51">
@@ -3936,25 +3936,25 @@
         <v>312</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>10131</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1013</v>
       </c>
       <c r="I20">
         <v>552</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L20">
         <v>9387</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="N20">
         <v>14679</v>
@@ -4085,37 +4085,37 @@
         <v>103</v>
       </c>
       <c r="E21" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="F21">
-        <v>428</v>
+        <v>3343</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>95981</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>9598</v>
       </c>
       <c r="I21">
-        <v>1049</v>
+        <v>4488</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L21">
-        <v>12863</v>
+        <v>100296</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="N21">
-        <v>21437</v>
+        <v>139622</v>
       </c>
       <c r="O21">
-        <v>22486</v>
+        <v>144110</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -4124,106 +4124,106 @@
         <v>0</v>
       </c>
       <c r="R21">
-        <v>54307</v>
+        <v>15582</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>1656</v>
       </c>
       <c r="T21">
-        <v>21917</v>
+        <v>142488</v>
       </c>
       <c r="U21">
-        <v>1584</v>
+        <v>7558</v>
       </c>
       <c r="V21">
-        <v>548</v>
+        <v>6695</v>
       </c>
       <c r="W21">
-        <v>416</v>
+        <v>2983</v>
       </c>
       <c r="X21">
-        <v>1351</v>
+        <v>6652</v>
       </c>
       <c r="Y21">
-        <v>1035</v>
+        <v>4991</v>
       </c>
       <c r="Z21">
-        <v>1030</v>
+        <v>5850</v>
       </c>
       <c r="AA21">
-        <v>1447</v>
+        <v>6430</v>
       </c>
       <c r="AB21">
-        <v>1154</v>
+        <v>5513</v>
       </c>
       <c r="AC21">
-        <v>512</v>
+        <v>5803</v>
       </c>
       <c r="AD21">
-        <v>412</v>
+        <v>2704</v>
       </c>
       <c r="AE21">
-        <v>370</v>
+        <v>5338</v>
       </c>
       <c r="AF21">
-        <v>748</v>
+        <v>3094</v>
       </c>
       <c r="AG21">
-        <v>1004</v>
+        <v>3595</v>
       </c>
       <c r="AH21">
-        <v>274</v>
+        <v>2663</v>
       </c>
       <c r="AI21">
-        <v>391</v>
+        <v>3669</v>
       </c>
       <c r="AJ21">
-        <v>662</v>
+        <v>5182</v>
       </c>
       <c r="AK21">
-        <v>2210</v>
+        <v>5447</v>
       </c>
       <c r="AL21">
-        <v>622</v>
+        <v>2425</v>
       </c>
       <c r="AM21">
-        <v>162</v>
+        <v>6277</v>
       </c>
       <c r="AN21">
-        <v>455</v>
+        <v>3540</v>
       </c>
       <c r="AO21">
-        <v>391</v>
+        <v>3194</v>
       </c>
       <c r="AP21">
-        <v>583</v>
+        <v>5312</v>
       </c>
       <c r="AQ21">
-        <v>569</v>
+        <v>1622</v>
       </c>
       <c r="AR21">
-        <v>338</v>
+        <v>7166</v>
       </c>
       <c r="AS21">
-        <v>1139</v>
+        <v>6330</v>
       </c>
       <c r="AT21">
-        <v>246</v>
+        <v>5174</v>
       </c>
       <c r="AU21">
-        <v>867</v>
+        <v>8215</v>
       </c>
       <c r="AV21">
-        <v>443</v>
+        <v>2188</v>
       </c>
       <c r="AW21">
-        <v>491</v>
+        <v>4133</v>
       </c>
       <c r="AX21">
-        <v>607</v>
+        <v>2489</v>
       </c>
       <c r="AY21">
-        <v>425</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="22" spans="1:51">
@@ -4240,37 +4240,37 @@
         <v>104</v>
       </c>
       <c r="E22" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="F22">
-        <v>5597</v>
+        <v>428</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>15997</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1599</v>
       </c>
       <c r="I22">
-        <v>8063</v>
+        <v>1049</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L22">
-        <v>167921</v>
+        <v>12863</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="N22">
-        <v>127507</v>
+        <v>21437</v>
       </c>
       <c r="O22">
-        <v>135570</v>
+        <v>22486</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -4279,106 +4279,106 @@
         <v>0</v>
       </c>
       <c r="R22">
-        <v>20227</v>
+        <v>54307</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
       <c r="T22">
-        <v>132202</v>
+        <v>21917</v>
       </c>
       <c r="U22">
-        <v>4829</v>
+        <v>1584</v>
       </c>
       <c r="V22">
-        <v>5891</v>
+        <v>548</v>
       </c>
       <c r="W22">
-        <v>5773</v>
+        <v>416</v>
       </c>
       <c r="X22">
-        <v>8041</v>
+        <v>1351</v>
       </c>
       <c r="Y22">
-        <v>8848</v>
+        <v>1035</v>
       </c>
       <c r="Z22">
-        <v>6588</v>
+        <v>1030</v>
       </c>
       <c r="AA22">
-        <v>4311</v>
+        <v>1447</v>
       </c>
       <c r="AB22">
-        <v>5012</v>
+        <v>1154</v>
       </c>
       <c r="AC22">
-        <v>5103</v>
+        <v>512</v>
       </c>
       <c r="AD22">
-        <v>3537</v>
+        <v>412</v>
       </c>
       <c r="AE22">
-        <v>4971</v>
+        <v>370</v>
       </c>
       <c r="AF22">
-        <v>2231</v>
+        <v>748</v>
       </c>
       <c r="AG22">
-        <v>3524</v>
+        <v>1004</v>
       </c>
       <c r="AH22">
-        <v>4070</v>
+        <v>274</v>
       </c>
       <c r="AI22">
-        <v>2745</v>
+        <v>391</v>
       </c>
       <c r="AJ22">
-        <v>5927</v>
+        <v>662</v>
       </c>
       <c r="AK22">
-        <v>1539</v>
+        <v>2210</v>
       </c>
       <c r="AL22">
-        <v>2665</v>
+        <v>622</v>
       </c>
       <c r="AM22">
-        <v>1860</v>
+        <v>162</v>
       </c>
       <c r="AN22">
-        <v>2099</v>
+        <v>455</v>
       </c>
       <c r="AO22">
-        <v>7056</v>
+        <v>391</v>
       </c>
       <c r="AP22">
-        <v>4079</v>
+        <v>583</v>
       </c>
       <c r="AQ22">
-        <v>3368</v>
+        <v>569</v>
       </c>
       <c r="AR22">
-        <v>4625</v>
+        <v>338</v>
       </c>
       <c r="AS22">
-        <v>3549</v>
+        <v>1139</v>
       </c>
       <c r="AT22">
-        <v>5274</v>
+        <v>246</v>
       </c>
       <c r="AU22">
-        <v>3155</v>
+        <v>867</v>
       </c>
       <c r="AV22">
-        <v>2404</v>
+        <v>443</v>
       </c>
       <c r="AW22">
-        <v>4802</v>
+        <v>491</v>
       </c>
       <c r="AX22">
-        <v>3333</v>
+        <v>607</v>
       </c>
       <c r="AY22">
-        <v>4361</v>
+        <v>425</v>
       </c>
     </row>
     <row r="23" spans="1:51">
@@ -4395,37 +4395,37 @@
         <v>105</v>
       </c>
       <c r="E23" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F23">
-        <v>3343</v>
+        <v>5597</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>143972</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>14397</v>
       </c>
       <c r="I23">
-        <v>4488</v>
+        <v>8063</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L23">
-        <v>100296</v>
+        <v>167921</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="N23">
-        <v>139622</v>
+        <v>127507</v>
       </c>
       <c r="O23">
-        <v>144110</v>
+        <v>135570</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -4434,106 +4434,106 @@
         <v>0</v>
       </c>
       <c r="R23">
-        <v>15582</v>
+        <v>20227</v>
       </c>
       <c r="S23">
-        <v>1656</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>142488</v>
+        <v>132202</v>
       </c>
       <c r="U23">
-        <v>7558</v>
+        <v>4829</v>
       </c>
       <c r="V23">
-        <v>6695</v>
+        <v>5891</v>
       </c>
       <c r="W23">
-        <v>2983</v>
+        <v>5773</v>
       </c>
       <c r="X23">
-        <v>6652</v>
+        <v>8041</v>
       </c>
       <c r="Y23">
-        <v>4991</v>
+        <v>8848</v>
       </c>
       <c r="Z23">
-        <v>5850</v>
+        <v>6588</v>
       </c>
       <c r="AA23">
-        <v>6430</v>
+        <v>4311</v>
       </c>
       <c r="AB23">
-        <v>5513</v>
+        <v>5012</v>
       </c>
       <c r="AC23">
-        <v>5803</v>
+        <v>5103</v>
       </c>
       <c r="AD23">
-        <v>2704</v>
+        <v>3537</v>
       </c>
       <c r="AE23">
-        <v>5338</v>
+        <v>4971</v>
       </c>
       <c r="AF23">
-        <v>3094</v>
+        <v>2231</v>
       </c>
       <c r="AG23">
-        <v>3595</v>
+        <v>3524</v>
       </c>
       <c r="AH23">
-        <v>2663</v>
+        <v>4070</v>
       </c>
       <c r="AI23">
-        <v>3669</v>
+        <v>2745</v>
       </c>
       <c r="AJ23">
-        <v>5182</v>
+        <v>5927</v>
       </c>
       <c r="AK23">
-        <v>5447</v>
+        <v>1539</v>
       </c>
       <c r="AL23">
-        <v>2425</v>
+        <v>2665</v>
       </c>
       <c r="AM23">
-        <v>6277</v>
+        <v>1860</v>
       </c>
       <c r="AN23">
-        <v>3540</v>
+        <v>2099</v>
       </c>
       <c r="AO23">
-        <v>3194</v>
+        <v>7056</v>
       </c>
       <c r="AP23">
-        <v>5312</v>
+        <v>4079</v>
       </c>
       <c r="AQ23">
-        <v>1622</v>
+        <v>3368</v>
       </c>
       <c r="AR23">
-        <v>7166</v>
+        <v>4625</v>
       </c>
       <c r="AS23">
-        <v>6330</v>
+        <v>3549</v>
       </c>
       <c r="AT23">
-        <v>5174</v>
+        <v>5274</v>
       </c>
       <c r="AU23">
-        <v>8215</v>
+        <v>3155</v>
       </c>
       <c r="AV23">
-        <v>2188</v>
+        <v>2404</v>
       </c>
       <c r="AW23">
-        <v>4133</v>
+        <v>4802</v>
       </c>
       <c r="AX23">
-        <v>2489</v>
+        <v>3333</v>
       </c>
       <c r="AY23">
-        <v>1878</v>
+        <v>4361</v>
       </c>
     </row>
     <row r="24" spans="1:51">
@@ -4550,43 +4550,43 @@
         <v>106</v>
       </c>
       <c r="E24" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F24">
-        <v>1056</v>
+        <v>172</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>4266</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>426</v>
       </c>
       <c r="I24">
-        <v>969</v>
+        <v>266</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L24">
-        <v>31690</v>
+        <v>5189</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="N24">
-        <v>67007</v>
+        <v>11259</v>
       </c>
       <c r="O24">
-        <v>67976</v>
+        <v>11525</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>33511</v>
+        <v>44</v>
       </c>
       <c r="R24">
         <v>0</v>
@@ -4595,100 +4595,100 @@
         <v>0</v>
       </c>
       <c r="T24">
-        <v>67644</v>
+        <v>11029</v>
       </c>
       <c r="U24">
-        <v>1489</v>
+        <v>184</v>
       </c>
       <c r="V24">
-        <v>4389</v>
+        <v>562</v>
       </c>
       <c r="W24">
-        <v>1445</v>
+        <v>243</v>
       </c>
       <c r="X24">
-        <v>782</v>
+        <v>284</v>
       </c>
       <c r="Y24">
-        <v>2343</v>
+        <v>273</v>
       </c>
       <c r="Z24">
-        <v>2086</v>
+        <v>304</v>
       </c>
       <c r="AA24">
-        <v>1120</v>
+        <v>902</v>
       </c>
       <c r="AB24">
-        <v>1022</v>
+        <v>461</v>
       </c>
       <c r="AC24">
-        <v>5975</v>
+        <v>233</v>
       </c>
       <c r="AD24">
-        <v>1224</v>
+        <v>399</v>
       </c>
       <c r="AE24">
-        <v>4214</v>
+        <v>345</v>
       </c>
       <c r="AF24">
-        <v>3128</v>
+        <v>283</v>
       </c>
       <c r="AG24">
-        <v>3294</v>
+        <v>167</v>
       </c>
       <c r="AH24">
-        <v>1634</v>
+        <v>194</v>
       </c>
       <c r="AI24">
-        <v>809</v>
+        <v>224</v>
       </c>
       <c r="AJ24">
-        <v>517</v>
+        <v>122</v>
       </c>
       <c r="AK24">
-        <v>2094</v>
+        <v>694</v>
       </c>
       <c r="AL24">
-        <v>1806</v>
+        <v>220</v>
       </c>
       <c r="AM24">
-        <v>1960</v>
+        <v>277</v>
       </c>
       <c r="AN24">
-        <v>1406</v>
+        <v>863</v>
       </c>
       <c r="AO24">
-        <v>2877</v>
+        <v>234</v>
       </c>
       <c r="AP24">
-        <v>1062</v>
+        <v>294</v>
       </c>
       <c r="AQ24">
-        <v>332</v>
+        <v>496</v>
       </c>
       <c r="AR24">
-        <v>7086</v>
+        <v>381</v>
       </c>
       <c r="AS24">
-        <v>3124</v>
+        <v>320</v>
       </c>
       <c r="AT24">
-        <v>1014</v>
+        <v>435</v>
       </c>
       <c r="AU24">
-        <v>2818</v>
+        <v>590</v>
       </c>
       <c r="AV24">
-        <v>1810</v>
+        <v>420</v>
       </c>
       <c r="AW24">
-        <v>1156</v>
+        <v>311</v>
       </c>
       <c r="AX24">
-        <v>1823</v>
+        <v>484</v>
       </c>
       <c r="AY24">
-        <v>2137</v>
+        <v>326</v>
       </c>
     </row>
     <row r="25" spans="1:51">
@@ -4705,43 +4705,43 @@
         <v>107</v>
       </c>
       <c r="E25" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F25">
-        <v>172</v>
+        <v>1056</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>34775</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>3477</v>
       </c>
       <c r="I25">
-        <v>266</v>
+        <v>969</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>5189</v>
+        <v>31690</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="N25">
-        <v>11259</v>
+        <v>67007</v>
       </c>
       <c r="O25">
-        <v>11525</v>
+        <v>67976</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>44</v>
+        <v>33511</v>
       </c>
       <c r="R25">
         <v>0</v>
@@ -4750,100 +4750,100 @@
         <v>0</v>
       </c>
       <c r="T25">
-        <v>11029</v>
+        <v>67644</v>
       </c>
       <c r="U25">
-        <v>184</v>
+        <v>1489</v>
       </c>
       <c r="V25">
-        <v>562</v>
+        <v>4389</v>
       </c>
       <c r="W25">
-        <v>243</v>
+        <v>1445</v>
       </c>
       <c r="X25">
-        <v>284</v>
+        <v>782</v>
       </c>
       <c r="Y25">
-        <v>273</v>
+        <v>2343</v>
       </c>
       <c r="Z25">
-        <v>304</v>
+        <v>2086</v>
       </c>
       <c r="AA25">
-        <v>902</v>
+        <v>1120</v>
       </c>
       <c r="AB25">
-        <v>461</v>
+        <v>1022</v>
       </c>
       <c r="AC25">
-        <v>233</v>
+        <v>5975</v>
       </c>
       <c r="AD25">
-        <v>399</v>
+        <v>1224</v>
       </c>
       <c r="AE25">
-        <v>345</v>
+        <v>4214</v>
       </c>
       <c r="AF25">
-        <v>283</v>
+        <v>3128</v>
       </c>
       <c r="AG25">
-        <v>167</v>
+        <v>3294</v>
       </c>
       <c r="AH25">
-        <v>194</v>
+        <v>1634</v>
       </c>
       <c r="AI25">
-        <v>224</v>
+        <v>809</v>
       </c>
       <c r="AJ25">
-        <v>122</v>
+        <v>517</v>
       </c>
       <c r="AK25">
-        <v>694</v>
+        <v>2094</v>
       </c>
       <c r="AL25">
-        <v>220</v>
+        <v>1806</v>
       </c>
       <c r="AM25">
-        <v>277</v>
+        <v>1960</v>
       </c>
       <c r="AN25">
-        <v>863</v>
+        <v>1406</v>
       </c>
       <c r="AO25">
-        <v>234</v>
+        <v>2877</v>
       </c>
       <c r="AP25">
-        <v>294</v>
+        <v>1062</v>
       </c>
       <c r="AQ25">
-        <v>496</v>
+        <v>332</v>
       </c>
       <c r="AR25">
-        <v>381</v>
+        <v>7086</v>
       </c>
       <c r="AS25">
-        <v>320</v>
+        <v>3124</v>
       </c>
       <c r="AT25">
-        <v>435</v>
+        <v>1014</v>
       </c>
       <c r="AU25">
-        <v>590</v>
+        <v>2818</v>
       </c>
       <c r="AV25">
-        <v>420</v>
+        <v>1810</v>
       </c>
       <c r="AW25">
-        <v>311</v>
+        <v>1156</v>
       </c>
       <c r="AX25">
-        <v>484</v>
+        <v>1823</v>
       </c>
       <c r="AY25">
-        <v>326</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="26" spans="1:51">
@@ -4866,25 +4866,25 @@
         <v>1565</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>55456</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>5545</v>
       </c>
       <c r="I26">
         <v>2603</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L26">
         <v>46975</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="N26">
         <v>117122</v>
@@ -5021,25 +5021,25 @@
         <v>3</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I27">
         <v>5</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>103</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="N27">
         <v>1342</v>
@@ -5176,25 +5176,25 @@
         <v>49</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>2686</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>268</v>
       </c>
       <c r="I28">
         <v>80</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L28">
         <v>1480</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="N28">
         <v>5342</v>
@@ -5325,40 +5325,40 @@
         <v>111</v>
       </c>
       <c r="E29" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="F29">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>1632</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="I29">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L29">
-        <v>175</v>
+        <v>1119</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="N29">
-        <v>2851</v>
+        <v>2413</v>
       </c>
       <c r="O29">
-        <v>2864</v>
+        <v>2481</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -5367,103 +5367,103 @@
         <v>0</v>
       </c>
       <c r="S29">
-        <v>1380</v>
+        <v>600</v>
       </c>
       <c r="T29">
-        <v>2842</v>
+        <v>2452</v>
       </c>
       <c r="U29">
+        <v>56</v>
+      </c>
+      <c r="V29">
+        <v>24</v>
+      </c>
+      <c r="W29">
         <v>50</v>
       </c>
-      <c r="V29">
-        <v>32</v>
-      </c>
-      <c r="W29">
-        <v>18</v>
-      </c>
       <c r="X29">
+        <v>34</v>
+      </c>
+      <c r="Y29">
+        <v>109</v>
+      </c>
+      <c r="Z29">
+        <v>117</v>
+      </c>
+      <c r="AA29">
+        <v>96</v>
+      </c>
+      <c r="AB29">
+        <v>72</v>
+      </c>
+      <c r="AC29">
+        <v>40</v>
+      </c>
+      <c r="AD29">
+        <v>54</v>
+      </c>
+      <c r="AE29">
+        <v>20</v>
+      </c>
+      <c r="AF29">
+        <v>12</v>
+      </c>
+      <c r="AG29">
+        <v>72</v>
+      </c>
+      <c r="AH29">
+        <v>39</v>
+      </c>
+      <c r="AI29">
+        <v>81</v>
+      </c>
+      <c r="AJ29">
+        <v>63</v>
+      </c>
+      <c r="AK29">
+        <v>714</v>
+      </c>
+      <c r="AL29">
+        <v>133</v>
+      </c>
+      <c r="AM29">
+        <v>33</v>
+      </c>
+      <c r="AN29">
+        <v>44</v>
+      </c>
+      <c r="AO29">
+        <v>77</v>
+      </c>
+      <c r="AP29">
         <v>24</v>
       </c>
-      <c r="Y29">
-        <v>62</v>
-      </c>
-      <c r="Z29">
-        <v>72</v>
-      </c>
-      <c r="AA29">
-        <v>43</v>
-      </c>
-      <c r="AB29">
-        <v>55</v>
-      </c>
-      <c r="AC29">
-        <v>26</v>
-      </c>
-      <c r="AD29">
-        <v>36</v>
-      </c>
-      <c r="AE29">
-        <v>52</v>
-      </c>
-      <c r="AF29">
-        <v>10</v>
-      </c>
-      <c r="AG29">
-        <v>45</v>
-      </c>
-      <c r="AH29">
-        <v>43</v>
-      </c>
-      <c r="AI29">
-        <v>25</v>
-      </c>
-      <c r="AJ29">
-        <v>45</v>
-      </c>
-      <c r="AK29">
-        <v>1505</v>
-      </c>
-      <c r="AL29">
-        <v>78</v>
-      </c>
-      <c r="AM29">
-        <v>58</v>
-      </c>
-      <c r="AN29">
-        <v>94</v>
-      </c>
-      <c r="AO29">
-        <v>8</v>
-      </c>
-      <c r="AP29">
-        <v>50</v>
-      </c>
       <c r="AQ29">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AR29">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="AS29">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="AT29">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="AU29">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="AV29">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="AW29">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="AX29">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AY29">
-        <v>42</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:51">
@@ -5480,145 +5480,145 @@
         <v>112</v>
       </c>
       <c r="E30" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="F30">
+        <v>45</v>
+      </c>
+      <c r="G30">
+        <v>1971</v>
+      </c>
+      <c r="H30">
+        <v>197</v>
+      </c>
+      <c r="I30">
+        <v>64</v>
+      </c>
+      <c r="J30">
+        <v>32</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1377</v>
+      </c>
+      <c r="M30">
+        <v>69</v>
+      </c>
+      <c r="N30">
+        <v>1016</v>
+      </c>
+      <c r="O30">
+        <v>1080</v>
+      </c>
+      <c r="P30">
+        <v>58</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>1020</v>
+      </c>
+      <c r="U30">
+        <v>21</v>
+      </c>
+      <c r="V30">
+        <v>32</v>
+      </c>
+      <c r="W30">
+        <v>158</v>
+      </c>
+      <c r="X30">
+        <v>25</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>104</v>
+      </c>
+      <c r="AB30">
+        <v>63</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>36</v>
+      </c>
+      <c r="AE30">
+        <v>61</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>19</v>
+      </c>
+      <c r="AH30">
+        <v>48</v>
+      </c>
+      <c r="AI30">
+        <v>47</v>
+      </c>
+      <c r="AJ30">
+        <v>33</v>
+      </c>
+      <c r="AK30">
+        <v>49</v>
+      </c>
+      <c r="AL30">
+        <v>32</v>
+      </c>
+      <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AN30">
+        <v>69</v>
+      </c>
+      <c r="AO30">
+        <v>0</v>
+      </c>
+      <c r="AP30">
+        <v>6</v>
+      </c>
+      <c r="AQ30">
+        <v>60</v>
+      </c>
+      <c r="AR30">
         <v>37</v>
       </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>68</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>1119</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>2413</v>
-      </c>
-      <c r="O30">
-        <v>2481</v>
-      </c>
-      <c r="P30">
-        <v>17</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-      <c r="S30">
-        <v>600</v>
-      </c>
-      <c r="T30">
-        <v>2452</v>
-      </c>
-      <c r="U30">
-        <v>56</v>
-      </c>
-      <c r="V30">
-        <v>24</v>
-      </c>
-      <c r="W30">
+      <c r="AS30">
+        <v>36</v>
+      </c>
+      <c r="AT30">
         <v>50</v>
       </c>
-      <c r="X30">
-        <v>34</v>
-      </c>
-      <c r="Y30">
-        <v>109</v>
-      </c>
-      <c r="Z30">
-        <v>117</v>
-      </c>
-      <c r="AA30">
-        <v>96</v>
-      </c>
-      <c r="AB30">
-        <v>72</v>
-      </c>
-      <c r="AC30">
-        <v>40</v>
-      </c>
-      <c r="AD30">
-        <v>54</v>
-      </c>
-      <c r="AE30">
-        <v>20</v>
-      </c>
-      <c r="AF30">
-        <v>12</v>
-      </c>
-      <c r="AG30">
-        <v>72</v>
-      </c>
-      <c r="AH30">
-        <v>39</v>
-      </c>
-      <c r="AI30">
-        <v>81</v>
-      </c>
-      <c r="AJ30">
-        <v>63</v>
-      </c>
-      <c r="AK30">
-        <v>714</v>
-      </c>
-      <c r="AL30">
-        <v>133</v>
-      </c>
-      <c r="AM30">
-        <v>33</v>
-      </c>
-      <c r="AN30">
-        <v>44</v>
-      </c>
-      <c r="AO30">
-        <v>77</v>
-      </c>
-      <c r="AP30">
-        <v>24</v>
-      </c>
-      <c r="AQ30">
-        <v>29</v>
-      </c>
-      <c r="AR30">
-        <v>46</v>
-      </c>
-      <c r="AS30">
-        <v>63</v>
-      </c>
-      <c r="AT30">
-        <v>76</v>
-      </c>
       <c r="AU30">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="AV30">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AW30">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AX30">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AY30">
-        <v>89</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:51">
@@ -5635,40 +5635,40 @@
         <v>113</v>
       </c>
       <c r="E31" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F31">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I31">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L31">
-        <v>1377</v>
+        <v>175</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="N31">
-        <v>1016</v>
+        <v>2851</v>
       </c>
       <c r="O31">
-        <v>1080</v>
+        <v>2864</v>
       </c>
       <c r="P31">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="Q31">
         <v>0</v>
@@ -5677,103 +5677,103 @@
         <v>0</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>1380</v>
       </c>
       <c r="T31">
-        <v>1020</v>
+        <v>2842</v>
       </c>
       <c r="U31">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="V31">
         <v>32</v>
       </c>
       <c r="W31">
-        <v>158</v>
+        <v>18</v>
       </c>
       <c r="X31">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y31">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="AA31">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="AB31">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="AC31">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AD31">
         <v>36</v>
       </c>
       <c r="AE31">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="AF31">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG31">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="AH31">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AI31">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="AJ31">
+        <v>45</v>
+      </c>
+      <c r="AK31">
+        <v>1505</v>
+      </c>
+      <c r="AL31">
+        <v>78</v>
+      </c>
+      <c r="AM31">
+        <v>58</v>
+      </c>
+      <c r="AN31">
+        <v>94</v>
+      </c>
+      <c r="AO31">
+        <v>8</v>
+      </c>
+      <c r="AP31">
+        <v>50</v>
+      </c>
+      <c r="AQ31">
+        <v>22</v>
+      </c>
+      <c r="AR31">
         <v>33</v>
-      </c>
-      <c r="AK31">
-        <v>49</v>
-      </c>
-      <c r="AL31">
-        <v>32</v>
-      </c>
-      <c r="AM31">
-        <v>0</v>
-      </c>
-      <c r="AN31">
-        <v>69</v>
-      </c>
-      <c r="AO31">
-        <v>0</v>
-      </c>
-      <c r="AP31">
-        <v>6</v>
-      </c>
-      <c r="AQ31">
-        <v>60</v>
-      </c>
-      <c r="AR31">
-        <v>37</v>
       </c>
       <c r="AS31">
         <v>36</v>
       </c>
       <c r="AT31">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="AU31">
+        <v>70</v>
+      </c>
+      <c r="AV31">
+        <v>70</v>
+      </c>
+      <c r="AW31">
+        <v>86</v>
+      </c>
+      <c r="AX31">
+        <v>41</v>
+      </c>
+      <c r="AY31">
         <v>42</v>
-      </c>
-      <c r="AV31">
-        <v>0</v>
-      </c>
-      <c r="AW31">
-        <v>0</v>
-      </c>
-      <c r="AX31">
-        <v>0</v>
-      </c>
-      <c r="AY31">
-        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:51">
@@ -5796,25 +5796,25 @@
         <v>57</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>1815</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="I32">
         <v>76</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L32">
         <v>1716</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="N32">
         <v>4936</v>
@@ -5951,25 +5951,25 @@
         <v>11</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>537</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="I33">
         <v>33</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L33">
         <v>330</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="N33">
         <v>1711</v>
@@ -6106,25 +6106,25 @@
         <v>106</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>5858</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="I34">
         <v>220</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>3194</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="N34">
         <v>7445</v>
@@ -6261,25 +6261,25 @@
         <v>862</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>33060</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>3306</v>
       </c>
       <c r="I35">
         <v>1465</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L35">
         <v>25869</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="N35">
         <v>21407</v>
@@ -6410,145 +6410,145 @@
         <v>118</v>
       </c>
       <c r="E36" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="F36">
-        <v>605</v>
+        <v>762</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>27728</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2772</v>
       </c>
       <c r="I36">
+        <v>1092</v>
+      </c>
+      <c r="J36">
+        <v>39</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>22867</v>
+      </c>
+      <c r="M36">
+        <v>82</v>
+      </c>
+      <c r="N36">
+        <v>30935</v>
+      </c>
+      <c r="O36">
+        <v>32027</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>14828</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>6016</v>
+      </c>
+      <c r="T36">
+        <v>31198</v>
+      </c>
+      <c r="U36">
+        <v>882</v>
+      </c>
+      <c r="V36">
+        <v>1420</v>
+      </c>
+      <c r="W36">
+        <v>733</v>
+      </c>
+      <c r="X36">
         <v>787</v>
       </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>18166</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>3817</v>
-      </c>
-      <c r="O36">
-        <v>4604</v>
-      </c>
-      <c r="P36">
-        <v>1768</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-      <c r="R36">
-        <v>0</v>
-      </c>
-      <c r="S36">
-        <v>0</v>
-      </c>
-      <c r="T36">
-        <v>4499</v>
-      </c>
-      <c r="U36">
-        <v>272</v>
-      </c>
-      <c r="V36">
-        <v>134</v>
-      </c>
-      <c r="W36">
-        <v>359</v>
-      </c>
-      <c r="X36">
-        <v>376</v>
-      </c>
       <c r="Y36">
-        <v>157</v>
+        <v>734</v>
       </c>
       <c r="Z36">
-        <v>122</v>
+        <v>775</v>
       </c>
       <c r="AA36">
-        <v>0</v>
+        <v>832</v>
       </c>
       <c r="AB36">
-        <v>187</v>
+        <v>908</v>
       </c>
       <c r="AC36">
-        <v>122</v>
+        <v>701</v>
       </c>
       <c r="AD36">
-        <v>146</v>
+        <v>740</v>
       </c>
       <c r="AE36">
-        <v>42</v>
+        <v>659</v>
       </c>
       <c r="AF36">
-        <v>36</v>
+        <v>499</v>
       </c>
       <c r="AG36">
-        <v>140</v>
+        <v>864</v>
       </c>
       <c r="AH36">
-        <v>118</v>
+        <v>502</v>
       </c>
       <c r="AI36">
-        <v>253</v>
+        <v>1050</v>
       </c>
       <c r="AJ36">
-        <v>92</v>
+        <v>658</v>
       </c>
       <c r="AK36">
-        <v>0</v>
+        <v>6578</v>
       </c>
       <c r="AL36">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="AM36">
-        <v>258</v>
+        <v>806</v>
       </c>
       <c r="AN36">
-        <v>0</v>
+        <v>423</v>
       </c>
       <c r="AO36">
-        <v>282</v>
+        <v>1363</v>
       </c>
       <c r="AP36">
-        <v>79</v>
+        <v>1111</v>
       </c>
       <c r="AQ36">
-        <v>105</v>
+        <v>829</v>
       </c>
       <c r="AR36">
-        <v>170</v>
+        <v>697</v>
       </c>
       <c r="AS36">
-        <v>15</v>
+        <v>1175</v>
       </c>
       <c r="AT36">
-        <v>279</v>
+        <v>815</v>
       </c>
       <c r="AU36">
-        <v>206</v>
+        <v>768</v>
       </c>
       <c r="AV36">
-        <v>160</v>
+        <v>978</v>
       </c>
       <c r="AW36">
-        <v>33</v>
+        <v>1298</v>
       </c>
       <c r="AX36">
-        <v>118</v>
+        <v>841</v>
       </c>
       <c r="AY36">
-        <v>343</v>
+        <v>901</v>
       </c>
     </row>
     <row r="37" spans="1:51">
@@ -6565,145 +6565,145 @@
         <v>119</v>
       </c>
       <c r="E37" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="F37">
-        <v>762</v>
+        <v>282</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>10665</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1066</v>
       </c>
       <c r="I37">
-        <v>1092</v>
+        <v>518</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L37">
-        <v>22867</v>
+        <v>8467</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="N37">
-        <v>30935</v>
+        <v>9366</v>
       </c>
       <c r="O37">
-        <v>32027</v>
+        <v>9884</v>
       </c>
       <c r="P37">
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>14828</v>
+        <v>0</v>
       </c>
       <c r="R37">
         <v>0</v>
       </c>
       <c r="S37">
-        <v>6016</v>
+        <v>0</v>
       </c>
       <c r="T37">
-        <v>31198</v>
+        <v>9607</v>
       </c>
       <c r="U37">
-        <v>882</v>
+        <v>253</v>
       </c>
       <c r="V37">
-        <v>1420</v>
+        <v>705</v>
       </c>
       <c r="W37">
-        <v>733</v>
+        <v>57</v>
       </c>
       <c r="X37">
-        <v>787</v>
+        <v>723</v>
       </c>
       <c r="Y37">
-        <v>734</v>
+        <v>332</v>
       </c>
       <c r="Z37">
-        <v>775</v>
+        <v>558</v>
       </c>
       <c r="AA37">
-        <v>832</v>
+        <v>221</v>
       </c>
       <c r="AB37">
-        <v>908</v>
+        <v>362</v>
       </c>
       <c r="AC37">
-        <v>701</v>
+        <v>41</v>
       </c>
       <c r="AD37">
-        <v>740</v>
+        <v>463</v>
       </c>
       <c r="AE37">
-        <v>659</v>
+        <v>370</v>
       </c>
       <c r="AF37">
-        <v>499</v>
+        <v>169</v>
       </c>
       <c r="AG37">
-        <v>864</v>
+        <v>159</v>
       </c>
       <c r="AH37">
-        <v>502</v>
+        <v>372</v>
       </c>
       <c r="AI37">
-        <v>1050</v>
+        <v>229</v>
       </c>
       <c r="AJ37">
-        <v>658</v>
+        <v>48</v>
       </c>
       <c r="AK37">
-        <v>6578</v>
+        <v>650</v>
       </c>
       <c r="AL37">
-        <v>700</v>
+        <v>741</v>
       </c>
       <c r="AM37">
-        <v>806</v>
+        <v>201</v>
       </c>
       <c r="AN37">
-        <v>423</v>
+        <v>536</v>
       </c>
       <c r="AO37">
-        <v>1363</v>
+        <v>209</v>
       </c>
       <c r="AP37">
-        <v>1111</v>
+        <v>96</v>
       </c>
       <c r="AQ37">
-        <v>829</v>
+        <v>277</v>
       </c>
       <c r="AR37">
-        <v>697</v>
+        <v>249</v>
       </c>
       <c r="AS37">
-        <v>1175</v>
+        <v>163</v>
       </c>
       <c r="AT37">
-        <v>815</v>
+        <v>167</v>
       </c>
       <c r="AU37">
-        <v>768</v>
+        <v>126</v>
       </c>
       <c r="AV37">
-        <v>978</v>
+        <v>688</v>
       </c>
       <c r="AW37">
-        <v>1298</v>
+        <v>127</v>
       </c>
       <c r="AX37">
-        <v>841</v>
+        <v>299</v>
       </c>
       <c r="AY37">
-        <v>901</v>
+        <v>293</v>
       </c>
     </row>
     <row r="38" spans="1:51">
@@ -6726,25 +6726,25 @@
         <v>60</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>1065</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="I38">
         <v>85</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L38">
         <v>1826</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="N38">
         <v>5496</v>
@@ -6875,145 +6875,145 @@
         <v>121</v>
       </c>
       <c r="E39" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F39">
+        <v>605</v>
+      </c>
+      <c r="G39">
+        <v>20263</v>
+      </c>
+      <c r="H39">
+        <v>2026</v>
+      </c>
+      <c r="I39">
+        <v>787</v>
+      </c>
+      <c r="J39">
+        <v>38</v>
+      </c>
+      <c r="K39">
+        <v>3</v>
+      </c>
+      <c r="L39">
+        <v>18166</v>
+      </c>
+      <c r="M39">
+        <v>89</v>
+      </c>
+      <c r="N39">
+        <v>3817</v>
+      </c>
+      <c r="O39">
+        <v>4604</v>
+      </c>
+      <c r="P39">
+        <v>1768</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>4499</v>
+      </c>
+      <c r="U39">
+        <v>272</v>
+      </c>
+      <c r="V39">
+        <v>134</v>
+      </c>
+      <c r="W39">
+        <v>359</v>
+      </c>
+      <c r="X39">
+        <v>376</v>
+      </c>
+      <c r="Y39">
+        <v>157</v>
+      </c>
+      <c r="Z39">
+        <v>122</v>
+      </c>
+      <c r="AA39">
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <v>187</v>
+      </c>
+      <c r="AC39">
+        <v>122</v>
+      </c>
+      <c r="AD39">
+        <v>146</v>
+      </c>
+      <c r="AE39">
+        <v>42</v>
+      </c>
+      <c r="AF39">
+        <v>36</v>
+      </c>
+      <c r="AG39">
+        <v>140</v>
+      </c>
+      <c r="AH39">
+        <v>118</v>
+      </c>
+      <c r="AI39">
+        <v>253</v>
+      </c>
+      <c r="AJ39">
+        <v>92</v>
+      </c>
+      <c r="AK39">
+        <v>0</v>
+      </c>
+      <c r="AL39">
+        <v>0</v>
+      </c>
+      <c r="AM39">
+        <v>258</v>
+      </c>
+      <c r="AN39">
+        <v>0</v>
+      </c>
+      <c r="AO39">
         <v>282</v>
       </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>518</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>8467</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <v>9366</v>
-      </c>
-      <c r="O39">
-        <v>9884</v>
-      </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
-      <c r="S39">
-        <v>0</v>
-      </c>
-      <c r="T39">
-        <v>9607</v>
-      </c>
-      <c r="U39">
-        <v>253</v>
-      </c>
-      <c r="V39">
-        <v>705</v>
-      </c>
-      <c r="W39">
-        <v>57</v>
-      </c>
-      <c r="X39">
-        <v>723</v>
-      </c>
-      <c r="Y39">
-        <v>332</v>
-      </c>
-      <c r="Z39">
-        <v>558</v>
-      </c>
-      <c r="AA39">
-        <v>221</v>
-      </c>
-      <c r="AB39">
-        <v>362</v>
-      </c>
-      <c r="AC39">
-        <v>41</v>
-      </c>
-      <c r="AD39">
-        <v>463</v>
-      </c>
-      <c r="AE39">
-        <v>370</v>
-      </c>
-      <c r="AF39">
-        <v>169</v>
-      </c>
-      <c r="AG39">
-        <v>159</v>
-      </c>
-      <c r="AH39">
-        <v>372</v>
-      </c>
-      <c r="AI39">
-        <v>229</v>
-      </c>
-      <c r="AJ39">
-        <v>48</v>
-      </c>
-      <c r="AK39">
-        <v>650</v>
-      </c>
-      <c r="AL39">
-        <v>741</v>
-      </c>
-      <c r="AM39">
-        <v>201</v>
-      </c>
-      <c r="AN39">
-        <v>536</v>
-      </c>
-      <c r="AO39">
-        <v>209</v>
-      </c>
       <c r="AP39">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="AQ39">
-        <v>277</v>
+        <v>105</v>
       </c>
       <c r="AR39">
-        <v>249</v>
+        <v>170</v>
       </c>
       <c r="AS39">
-        <v>163</v>
+        <v>15</v>
       </c>
       <c r="AT39">
-        <v>167</v>
+        <v>279</v>
       </c>
       <c r="AU39">
-        <v>126</v>
+        <v>206</v>
       </c>
       <c r="AV39">
-        <v>688</v>
+        <v>160</v>
       </c>
       <c r="AW39">
-        <v>127</v>
+        <v>33</v>
       </c>
       <c r="AX39">
-        <v>299</v>
+        <v>118</v>
       </c>
       <c r="AY39">
-        <v>293</v>
+        <v>343</v>
       </c>
     </row>
     <row r="40" spans="1:51">
@@ -7030,145 +7030,145 @@
         <v>122</v>
       </c>
       <c r="E40" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="F40">
-        <v>293</v>
+        <v>235</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>7464</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>746</v>
       </c>
       <c r="I40">
-        <v>429</v>
+        <v>395</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L40">
-        <v>8805</v>
+        <v>7069</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="N40">
-        <v>21253</v>
+        <v>9819</v>
       </c>
       <c r="O40">
-        <v>21682</v>
+        <v>10214</v>
       </c>
       <c r="P40">
-        <v>0</v>
+        <v>458</v>
       </c>
       <c r="Q40">
-        <v>3188</v>
+        <v>0</v>
       </c>
       <c r="R40">
         <v>0</v>
       </c>
       <c r="S40">
-        <v>384</v>
+        <v>0</v>
       </c>
       <c r="T40">
-        <v>21071</v>
+        <v>9907</v>
       </c>
       <c r="U40">
-        <v>993</v>
+        <v>475</v>
       </c>
       <c r="V40">
-        <v>937</v>
+        <v>269</v>
       </c>
       <c r="W40">
-        <v>340</v>
+        <v>202</v>
       </c>
       <c r="X40">
-        <v>562</v>
+        <v>330</v>
       </c>
       <c r="Y40">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="Z40">
-        <v>543</v>
+        <v>349</v>
       </c>
       <c r="AA40">
-        <v>561</v>
+        <v>357</v>
       </c>
       <c r="AB40">
-        <v>438</v>
+        <v>387</v>
       </c>
       <c r="AC40">
-        <v>795</v>
+        <v>278</v>
       </c>
       <c r="AD40">
-        <v>1064</v>
+        <v>129</v>
       </c>
       <c r="AE40">
-        <v>588</v>
+        <v>200</v>
       </c>
       <c r="AF40">
-        <v>778</v>
+        <v>300</v>
       </c>
       <c r="AG40">
-        <v>493</v>
+        <v>153</v>
       </c>
       <c r="AH40">
-        <v>732</v>
+        <v>163</v>
       </c>
       <c r="AI40">
-        <v>526</v>
+        <v>371</v>
       </c>
       <c r="AJ40">
-        <v>322</v>
+        <v>253</v>
       </c>
       <c r="AK40">
-        <v>963</v>
+        <v>789</v>
       </c>
       <c r="AL40">
-        <v>767</v>
+        <v>258</v>
       </c>
       <c r="AM40">
-        <v>757</v>
+        <v>292</v>
       </c>
       <c r="AN40">
-        <v>767</v>
+        <v>245</v>
       </c>
       <c r="AO40">
-        <v>678</v>
+        <v>357</v>
       </c>
       <c r="AP40">
-        <v>943</v>
+        <v>850</v>
       </c>
       <c r="AQ40">
-        <v>611</v>
+        <v>307</v>
       </c>
       <c r="AR40">
-        <v>360</v>
+        <v>268</v>
       </c>
       <c r="AS40">
-        <v>844</v>
+        <v>143</v>
       </c>
       <c r="AT40">
-        <v>570</v>
+        <v>272</v>
       </c>
       <c r="AU40">
-        <v>580</v>
+        <v>273</v>
       </c>
       <c r="AV40">
-        <v>611</v>
+        <v>301</v>
       </c>
       <c r="AW40">
-        <v>905</v>
+        <v>413</v>
       </c>
       <c r="AX40">
-        <v>1320</v>
+        <v>226</v>
       </c>
       <c r="AY40">
-        <v>933</v>
+        <v>615</v>
       </c>
     </row>
     <row r="41" spans="1:51">
@@ -7185,145 +7185,145 @@
         <v>123</v>
       </c>
       <c r="E41" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="F41">
-        <v>235</v>
+        <v>293</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>8531</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>853</v>
       </c>
       <c r="I41">
-        <v>395</v>
+        <v>429</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L41">
-        <v>7069</v>
+        <v>8805</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="N41">
-        <v>9819</v>
+        <v>21253</v>
       </c>
       <c r="O41">
-        <v>10214</v>
+        <v>21682</v>
       </c>
       <c r="P41">
-        <v>458</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>3188</v>
       </c>
       <c r="R41">
         <v>0</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>384</v>
       </c>
       <c r="T41">
-        <v>9907</v>
+        <v>21071</v>
       </c>
       <c r="U41">
-        <v>475</v>
+        <v>993</v>
       </c>
       <c r="V41">
-        <v>269</v>
+        <v>937</v>
       </c>
       <c r="W41">
-        <v>202</v>
+        <v>340</v>
       </c>
       <c r="X41">
-        <v>330</v>
+        <v>562</v>
       </c>
       <c r="Y41">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="Z41">
-        <v>349</v>
+        <v>543</v>
       </c>
       <c r="AA41">
-        <v>357</v>
+        <v>561</v>
       </c>
       <c r="AB41">
-        <v>387</v>
+        <v>438</v>
       </c>
       <c r="AC41">
-        <v>278</v>
+        <v>795</v>
       </c>
       <c r="AD41">
-        <v>129</v>
+        <v>1064</v>
       </c>
       <c r="AE41">
-        <v>200</v>
+        <v>588</v>
       </c>
       <c r="AF41">
-        <v>300</v>
+        <v>778</v>
       </c>
       <c r="AG41">
-        <v>153</v>
+        <v>493</v>
       </c>
       <c r="AH41">
-        <v>163</v>
+        <v>732</v>
       </c>
       <c r="AI41">
-        <v>371</v>
+        <v>526</v>
       </c>
       <c r="AJ41">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="AK41">
-        <v>789</v>
+        <v>963</v>
       </c>
       <c r="AL41">
-        <v>258</v>
+        <v>767</v>
       </c>
       <c r="AM41">
-        <v>292</v>
+        <v>757</v>
       </c>
       <c r="AN41">
-        <v>245</v>
+        <v>767</v>
       </c>
       <c r="AO41">
-        <v>357</v>
+        <v>678</v>
       </c>
       <c r="AP41">
-        <v>850</v>
+        <v>943</v>
       </c>
       <c r="AQ41">
-        <v>307</v>
+        <v>611</v>
       </c>
       <c r="AR41">
-        <v>268</v>
+        <v>360</v>
       </c>
       <c r="AS41">
-        <v>143</v>
+        <v>844</v>
       </c>
       <c r="AT41">
-        <v>272</v>
+        <v>570</v>
       </c>
       <c r="AU41">
-        <v>273</v>
+        <v>580</v>
       </c>
       <c r="AV41">
-        <v>301</v>
+        <v>611</v>
       </c>
       <c r="AW41">
-        <v>413</v>
+        <v>905</v>
       </c>
       <c r="AX41">
-        <v>226</v>
+        <v>1320</v>
       </c>
       <c r="AY41">
-        <v>615</v>
+        <v>933</v>
       </c>
     </row>
     <row r="42" spans="1:51">
@@ -7346,25 +7346,25 @@
         <v>49</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>1288</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="I42">
         <v>80</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L42">
         <v>1490</v>
       </c>
       <c r="M42">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="N42">
         <v>1505</v>
@@ -7501,25 +7501,25 @@
         <v>372</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>14596</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1459</v>
       </c>
       <c r="I43">
         <v>429</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L43">
         <v>11171</v>
       </c>
       <c r="M43">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="N43">
         <v>9698</v>
@@ -7650,145 +7650,145 @@
         <v>126</v>
       </c>
       <c r="E44" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="F44">
-        <v>1228</v>
+        <v>24</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>825</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="I44">
-        <v>2381</v>
+        <v>36</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L44">
-        <v>36865</v>
+        <v>731</v>
       </c>
       <c r="M44">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="N44">
-        <v>72396</v>
+        <v>884</v>
       </c>
       <c r="O44">
-        <v>74777</v>
+        <v>920</v>
       </c>
       <c r="P44">
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>18670</v>
+        <v>0</v>
       </c>
       <c r="R44">
         <v>0</v>
       </c>
       <c r="S44">
-        <v>3456</v>
+        <v>0</v>
       </c>
       <c r="T44">
-        <v>72016</v>
+        <v>920</v>
       </c>
       <c r="U44">
-        <v>2160</v>
+        <v>0</v>
       </c>
       <c r="V44">
-        <v>3595</v>
+        <v>14</v>
       </c>
       <c r="W44">
-        <v>2102</v>
+        <v>0</v>
       </c>
       <c r="X44">
-        <v>1568</v>
+        <v>40</v>
       </c>
       <c r="Y44">
-        <v>2464</v>
+        <v>0</v>
       </c>
       <c r="Z44">
-        <v>2429</v>
+        <v>0</v>
       </c>
       <c r="AA44">
-        <v>2560</v>
+        <v>7</v>
       </c>
       <c r="AB44">
-        <v>3438</v>
+        <v>0</v>
       </c>
       <c r="AC44">
-        <v>3636</v>
+        <v>46</v>
       </c>
       <c r="AD44">
-        <v>2190</v>
+        <v>20</v>
       </c>
       <c r="AE44">
-        <v>2397</v>
+        <v>29</v>
       </c>
       <c r="AF44">
-        <v>2403</v>
+        <v>35</v>
       </c>
       <c r="AG44">
-        <v>2160</v>
+        <v>33</v>
       </c>
       <c r="AH44">
-        <v>1760</v>
+        <v>35</v>
       </c>
       <c r="AI44">
-        <v>1678</v>
+        <v>31</v>
       </c>
       <c r="AJ44">
-        <v>2560</v>
+        <v>36</v>
       </c>
       <c r="AK44">
-        <v>5087</v>
+        <v>154</v>
       </c>
       <c r="AL44">
-        <v>1698</v>
+        <v>60</v>
       </c>
       <c r="AM44">
-        <v>1840</v>
+        <v>13</v>
       </c>
       <c r="AN44">
-        <v>2440</v>
+        <v>47</v>
       </c>
       <c r="AO44">
-        <v>2033</v>
+        <v>48</v>
       </c>
       <c r="AP44">
-        <v>1888</v>
+        <v>27</v>
       </c>
       <c r="AQ44">
-        <v>2761</v>
+        <v>0</v>
       </c>
       <c r="AR44">
-        <v>1450</v>
+        <v>7</v>
       </c>
       <c r="AS44">
-        <v>2162</v>
+        <v>16</v>
       </c>
       <c r="AT44">
-        <v>2319</v>
+        <v>36</v>
       </c>
       <c r="AU44">
-        <v>2714</v>
+        <v>0</v>
       </c>
       <c r="AV44">
-        <v>1762</v>
+        <v>70</v>
       </c>
       <c r="AW44">
-        <v>3036</v>
+        <v>19</v>
       </c>
       <c r="AX44">
-        <v>2372</v>
+        <v>54</v>
       </c>
       <c r="AY44">
-        <v>2115</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:51">
@@ -7805,145 +7805,145 @@
         <v>127</v>
       </c>
       <c r="E45" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="F45">
-        <v>1084</v>
+        <v>1228</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>58655</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>5865</v>
       </c>
       <c r="I45">
-        <v>1653</v>
+        <v>2381</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L45">
-        <v>32534</v>
+        <v>36865</v>
       </c>
       <c r="M45">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="N45">
-        <v>32779</v>
+        <v>72396</v>
       </c>
       <c r="O45">
-        <v>34432</v>
+        <v>74777</v>
       </c>
       <c r="P45">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>18670</v>
       </c>
       <c r="R45">
         <v>0</v>
       </c>
       <c r="S45">
-        <v>0</v>
+        <v>3456</v>
       </c>
       <c r="T45">
-        <v>33429</v>
+        <v>72016</v>
       </c>
       <c r="U45">
-        <v>1014</v>
+        <v>2160</v>
       </c>
       <c r="V45">
-        <v>1500</v>
+        <v>3595</v>
       </c>
       <c r="W45">
-        <v>680</v>
+        <v>2102</v>
       </c>
       <c r="X45">
-        <v>1064</v>
+        <v>1568</v>
       </c>
       <c r="Y45">
-        <v>1041</v>
+        <v>2464</v>
       </c>
       <c r="Z45">
-        <v>1345</v>
+        <v>2429</v>
       </c>
       <c r="AA45">
-        <v>831</v>
+        <v>2560</v>
       </c>
       <c r="AB45">
-        <v>849</v>
+        <v>3438</v>
       </c>
       <c r="AC45">
-        <v>964</v>
+        <v>3636</v>
       </c>
       <c r="AD45">
-        <v>1479</v>
+        <v>2190</v>
       </c>
       <c r="AE45">
-        <v>922</v>
+        <v>2397</v>
       </c>
       <c r="AF45">
-        <v>1115</v>
+        <v>2403</v>
       </c>
       <c r="AG45">
-        <v>950</v>
+        <v>2160</v>
       </c>
       <c r="AH45">
-        <v>1512</v>
+        <v>1760</v>
       </c>
       <c r="AI45">
-        <v>1213</v>
+        <v>1678</v>
       </c>
       <c r="AJ45">
-        <v>974</v>
+        <v>2560</v>
       </c>
       <c r="AK45">
-        <v>1417</v>
+        <v>5087</v>
       </c>
       <c r="AL45">
-        <v>910</v>
+        <v>1698</v>
       </c>
       <c r="AM45">
-        <v>1074</v>
+        <v>1840</v>
       </c>
       <c r="AN45">
-        <v>775</v>
+        <v>2440</v>
       </c>
       <c r="AO45">
-        <v>1706</v>
+        <v>2033</v>
       </c>
       <c r="AP45">
-        <v>1528</v>
+        <v>1888</v>
       </c>
       <c r="AQ45">
-        <v>1003</v>
+        <v>2761</v>
       </c>
       <c r="AR45">
-        <v>1078</v>
+        <v>1450</v>
       </c>
       <c r="AS45">
-        <v>1112</v>
+        <v>2162</v>
       </c>
       <c r="AT45">
-        <v>1041</v>
+        <v>2319</v>
       </c>
       <c r="AU45">
-        <v>1106</v>
+        <v>2714</v>
       </c>
       <c r="AV45">
-        <v>744</v>
+        <v>1762</v>
       </c>
       <c r="AW45">
-        <v>1657</v>
+        <v>3036</v>
       </c>
       <c r="AX45">
-        <v>688</v>
+        <v>2372</v>
       </c>
       <c r="AY45">
-        <v>1140</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="46" spans="1:51">
@@ -7960,40 +7960,40 @@
         <v>128</v>
       </c>
       <c r="E46" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="F46">
-        <v>24</v>
+        <v>1084</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>36473</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>3647</v>
       </c>
       <c r="I46">
-        <v>36</v>
+        <v>1653</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L46">
-        <v>731</v>
+        <v>32534</v>
       </c>
       <c r="M46">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="N46">
-        <v>884</v>
+        <v>32779</v>
       </c>
       <c r="O46">
-        <v>920</v>
+        <v>34432</v>
       </c>
       <c r="P46">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Q46">
         <v>0</v>
@@ -8005,100 +8005,100 @@
         <v>0</v>
       </c>
       <c r="T46">
-        <v>920</v>
+        <v>33429</v>
       </c>
       <c r="U46">
-        <v>0</v>
+        <v>1014</v>
       </c>
       <c r="V46">
-        <v>14</v>
+        <v>1500</v>
       </c>
       <c r="W46">
-        <v>0</v>
+        <v>680</v>
       </c>
       <c r="X46">
-        <v>40</v>
+        <v>1064</v>
       </c>
       <c r="Y46">
-        <v>0</v>
+        <v>1041</v>
       </c>
       <c r="Z46">
-        <v>0</v>
+        <v>1345</v>
       </c>
       <c r="AA46">
-        <v>7</v>
+        <v>831</v>
       </c>
       <c r="AB46">
-        <v>0</v>
+        <v>849</v>
       </c>
       <c r="AC46">
-        <v>46</v>
+        <v>964</v>
       </c>
       <c r="AD46">
-        <v>20</v>
+        <v>1479</v>
       </c>
       <c r="AE46">
-        <v>29</v>
+        <v>922</v>
       </c>
       <c r="AF46">
-        <v>35</v>
+        <v>1115</v>
       </c>
       <c r="AG46">
-        <v>33</v>
+        <v>950</v>
       </c>
       <c r="AH46">
-        <v>35</v>
+        <v>1512</v>
       </c>
       <c r="AI46">
-        <v>31</v>
+        <v>1213</v>
       </c>
       <c r="AJ46">
-        <v>36</v>
+        <v>974</v>
       </c>
       <c r="AK46">
-        <v>154</v>
+        <v>1417</v>
       </c>
       <c r="AL46">
-        <v>60</v>
+        <v>910</v>
       </c>
       <c r="AM46">
-        <v>13</v>
+        <v>1074</v>
       </c>
       <c r="AN46">
-        <v>47</v>
+        <v>775</v>
       </c>
       <c r="AO46">
-        <v>48</v>
+        <v>1706</v>
       </c>
       <c r="AP46">
-        <v>27</v>
+        <v>1528</v>
       </c>
       <c r="AQ46">
-        <v>0</v>
+        <v>1003</v>
       </c>
       <c r="AR46">
-        <v>7</v>
+        <v>1078</v>
       </c>
       <c r="AS46">
-        <v>16</v>
+        <v>1112</v>
       </c>
       <c r="AT46">
-        <v>36</v>
+        <v>1041</v>
       </c>
       <c r="AU46">
-        <v>0</v>
+        <v>1106</v>
       </c>
       <c r="AV46">
-        <v>70</v>
+        <v>744</v>
       </c>
       <c r="AW46">
-        <v>19</v>
+        <v>1657</v>
       </c>
       <c r="AX46">
-        <v>54</v>
+        <v>688</v>
       </c>
       <c r="AY46">
-        <v>43</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="47" spans="1:51">
@@ -8121,25 +8121,25 @@
         <v>27</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>2262</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="I47">
         <v>39</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47">
         <v>833</v>
       </c>
       <c r="M47">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="N47">
         <v>1286</v>
@@ -8276,25 +8276,25 @@
         <v>300</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>14930</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1493</v>
       </c>
       <c r="I48">
         <v>461</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L48">
         <v>9019</v>
       </c>
       <c r="M48">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="N48">
         <v>18398</v>
@@ -8431,25 +8431,25 @@
         <v>95</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>2713</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>271</v>
       </c>
       <c r="I49">
         <v>144</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L49">
         <v>2867</v>
       </c>
       <c r="M49">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="N49">
         <v>4902</v>
@@ -8580,145 +8580,145 @@
         <v>132</v>
       </c>
       <c r="E50" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="F50">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>536</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="I50">
+        <v>9</v>
+      </c>
+      <c r="J50">
         <v>16</v>
       </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
       <c r="K50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50">
-        <v>261</v>
+        <v>331</v>
       </c>
       <c r="M50">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="N50">
-        <v>3089</v>
+        <v>956</v>
       </c>
       <c r="O50">
-        <v>3105</v>
+        <v>965</v>
       </c>
       <c r="P50">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>0</v>
+        <v>797</v>
       </c>
       <c r="R50">
         <v>0</v>
       </c>
       <c r="S50">
-        <v>1856</v>
+        <v>0</v>
       </c>
       <c r="T50">
-        <v>3087</v>
+        <v>965</v>
       </c>
       <c r="U50">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="V50">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="W50">
+        <v>25</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <v>31</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>23</v>
+      </c>
+      <c r="AB50">
+        <v>0</v>
+      </c>
+      <c r="AC50">
+        <v>16</v>
+      </c>
+      <c r="AD50">
+        <v>35</v>
+      </c>
+      <c r="AE50">
+        <v>40</v>
+      </c>
+      <c r="AF50">
+        <v>15</v>
+      </c>
+      <c r="AG50">
+        <v>20</v>
+      </c>
+      <c r="AH50">
+        <v>13</v>
+      </c>
+      <c r="AI50">
+        <v>12</v>
+      </c>
+      <c r="AJ50">
         <v>10</v>
       </c>
-      <c r="X50">
-        <v>15</v>
-      </c>
-      <c r="Y50">
+      <c r="AK50">
+        <v>64</v>
+      </c>
+      <c r="AL50">
+        <v>142</v>
+      </c>
+      <c r="AM50">
         <v>35</v>
       </c>
-      <c r="Z50">
-        <v>15</v>
-      </c>
-      <c r="AA50">
-        <v>32</v>
-      </c>
-      <c r="AB50">
-        <v>8</v>
-      </c>
-      <c r="AC50">
-        <v>12</v>
-      </c>
-      <c r="AD50">
-        <v>45</v>
-      </c>
-      <c r="AE50">
-        <v>29</v>
-      </c>
-      <c r="AF50">
-        <v>67</v>
-      </c>
-      <c r="AG50">
-        <v>27</v>
-      </c>
-      <c r="AH50">
-        <v>61</v>
-      </c>
-      <c r="AI50">
-        <v>48</v>
-      </c>
-      <c r="AJ50">
-        <v>34</v>
-      </c>
-      <c r="AK50">
-        <v>2120</v>
-      </c>
-      <c r="AL50">
-        <v>95</v>
-      </c>
-      <c r="AM50">
-        <v>61</v>
-      </c>
       <c r="AN50">
-        <v>106</v>
+        <v>169</v>
       </c>
       <c r="AO50">
         <v>16</v>
       </c>
       <c r="AP50">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="AQ50">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AR50">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="AS50">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="AT50">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AU50">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="AV50">
+        <v>0</v>
+      </c>
+      <c r="AW50">
+        <v>130</v>
+      </c>
+      <c r="AX50">
+        <v>5</v>
+      </c>
+      <c r="AY50">
         <v>11</v>
-      </c>
-      <c r="AW50">
-        <v>6</v>
-      </c>
-      <c r="AX50">
-        <v>14</v>
-      </c>
-      <c r="AY50">
-        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:51">
@@ -8741,25 +8741,25 @@
         <v>10</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>536</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="I51">
         <v>16</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L51">
         <v>324</v>
       </c>
       <c r="M51">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="N51">
         <v>622</v>
@@ -8890,145 +8890,145 @@
         <v>134</v>
       </c>
       <c r="E52" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="F52">
-        <v>61</v>
+        <v>284</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>13059</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1305</v>
       </c>
       <c r="I52">
-        <v>55</v>
+        <v>371</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L52">
-        <v>1846</v>
+        <v>8542</v>
       </c>
       <c r="M52">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N52">
-        <v>725</v>
+        <v>18256</v>
       </c>
       <c r="O52">
-        <v>780</v>
+        <v>18627</v>
       </c>
       <c r="P52">
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>2477</v>
       </c>
       <c r="R52">
         <v>0</v>
       </c>
       <c r="S52">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="T52">
-        <v>752</v>
+        <v>18266</v>
       </c>
       <c r="U52">
-        <v>10</v>
+        <v>396</v>
       </c>
       <c r="V52">
-        <v>0</v>
+        <v>381</v>
       </c>
       <c r="W52">
-        <v>78</v>
+        <v>549</v>
       </c>
       <c r="X52">
-        <v>0</v>
+        <v>896</v>
       </c>
       <c r="Y52">
-        <v>15</v>
+        <v>687</v>
       </c>
       <c r="Z52">
-        <v>53</v>
+        <v>877</v>
       </c>
       <c r="AA52">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="AB52">
-        <v>45</v>
+        <v>503</v>
       </c>
       <c r="AC52">
-        <v>0</v>
+        <v>669</v>
       </c>
       <c r="AD52">
-        <v>0</v>
+        <v>331</v>
       </c>
       <c r="AE52">
-        <v>58</v>
+        <v>542</v>
       </c>
       <c r="AF52">
-        <v>0</v>
+        <v>359</v>
       </c>
       <c r="AG52">
-        <v>0</v>
+        <v>475</v>
       </c>
       <c r="AH52">
-        <v>5</v>
+        <v>337</v>
       </c>
       <c r="AI52">
-        <v>0</v>
+        <v>874</v>
       </c>
       <c r="AJ52">
-        <v>10</v>
+        <v>932</v>
       </c>
       <c r="AK52">
-        <v>149</v>
+        <v>1646</v>
       </c>
       <c r="AL52">
-        <v>33</v>
+        <v>516</v>
       </c>
       <c r="AM52">
-        <v>5</v>
+        <v>516</v>
       </c>
       <c r="AN52">
-        <v>141</v>
+        <v>726</v>
       </c>
       <c r="AO52">
-        <v>49</v>
+        <v>484</v>
       </c>
       <c r="AP52">
-        <v>0</v>
+        <v>755</v>
       </c>
       <c r="AQ52">
-        <v>28</v>
+        <v>361</v>
       </c>
       <c r="AR52">
-        <v>8</v>
+        <v>294</v>
       </c>
       <c r="AS52">
-        <v>30</v>
+        <v>746</v>
       </c>
       <c r="AT52">
-        <v>0</v>
+        <v>624</v>
       </c>
       <c r="AU52">
-        <v>0</v>
+        <v>469</v>
       </c>
       <c r="AV52">
-        <v>31</v>
+        <v>402</v>
       </c>
       <c r="AW52">
-        <v>0</v>
+        <v>574</v>
       </c>
       <c r="AX52">
-        <v>32</v>
+        <v>856</v>
       </c>
       <c r="AY52">
-        <v>0</v>
+        <v>310</v>
       </c>
     </row>
     <row r="53" spans="1:51">
@@ -9045,43 +9045,43 @@
         <v>135</v>
       </c>
       <c r="E53" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="F53">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>957</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I53">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L53">
-        <v>331</v>
+        <v>1846</v>
       </c>
       <c r="M53">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="N53">
-        <v>956</v>
+        <v>725</v>
       </c>
       <c r="O53">
-        <v>965</v>
+        <v>780</v>
       </c>
       <c r="P53">
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>797</v>
+        <v>0</v>
       </c>
       <c r="R53">
         <v>0</v>
@@ -9090,100 +9090,100 @@
         <v>0</v>
       </c>
       <c r="T53">
-        <v>965</v>
+        <v>752</v>
       </c>
       <c r="U53">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V53">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="W53">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="X53">
         <v>0</v>
       </c>
       <c r="Y53">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="Z53">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="AA53">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AB53">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="AC53">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AD53">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AE53">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="AF53">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG53">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AH53">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AI53">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AJ53">
         <v>10</v>
       </c>
       <c r="AK53">
-        <v>64</v>
+        <v>149</v>
       </c>
       <c r="AL53">
-        <v>142</v>
+        <v>33</v>
       </c>
       <c r="AM53">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="AN53">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="AO53">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="AP53">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AQ53">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AR53">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="AS53">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="AT53">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="AU53">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AV53">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AW53">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AX53">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="AY53">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:51">
@@ -9200,145 +9200,145 @@
         <v>136</v>
       </c>
       <c r="E54" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="F54">
-        <v>284</v>
+        <v>8</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>424</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="I54">
-        <v>371</v>
+        <v>16</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="K54">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L54">
-        <v>8542</v>
+        <v>261</v>
       </c>
       <c r="M54">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="N54">
-        <v>18256</v>
+        <v>3089</v>
       </c>
       <c r="O54">
-        <v>18627</v>
+        <v>3105</v>
       </c>
       <c r="P54">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="Q54">
-        <v>2477</v>
+        <v>0</v>
       </c>
       <c r="R54">
         <v>0</v>
       </c>
       <c r="S54">
-        <v>288</v>
+        <v>1856</v>
       </c>
       <c r="T54">
-        <v>18266</v>
+        <v>3087</v>
       </c>
       <c r="U54">
-        <v>396</v>
+        <v>17</v>
       </c>
       <c r="V54">
-        <v>381</v>
+        <v>17</v>
       </c>
       <c r="W54">
-        <v>549</v>
+        <v>10</v>
       </c>
       <c r="X54">
-        <v>896</v>
+        <v>15</v>
       </c>
       <c r="Y54">
-        <v>687</v>
+        <v>35</v>
       </c>
       <c r="Z54">
-        <v>877</v>
+        <v>15</v>
       </c>
       <c r="AA54">
-        <v>540</v>
+        <v>32</v>
       </c>
       <c r="AB54">
-        <v>503</v>
+        <v>8</v>
       </c>
       <c r="AC54">
-        <v>669</v>
+        <v>12</v>
       </c>
       <c r="AD54">
-        <v>331</v>
+        <v>45</v>
       </c>
       <c r="AE54">
-        <v>542</v>
+        <v>29</v>
       </c>
       <c r="AF54">
-        <v>359</v>
+        <v>67</v>
       </c>
       <c r="AG54">
-        <v>475</v>
+        <v>27</v>
       </c>
       <c r="AH54">
-        <v>337</v>
+        <v>61</v>
       </c>
       <c r="AI54">
-        <v>874</v>
+        <v>48</v>
       </c>
       <c r="AJ54">
-        <v>932</v>
+        <v>34</v>
       </c>
       <c r="AK54">
-        <v>1646</v>
+        <v>2120</v>
       </c>
       <c r="AL54">
-        <v>516</v>
+        <v>95</v>
       </c>
       <c r="AM54">
-        <v>516</v>
+        <v>61</v>
       </c>
       <c r="AN54">
-        <v>726</v>
+        <v>106</v>
       </c>
       <c r="AO54">
-        <v>484</v>
+        <v>16</v>
       </c>
       <c r="AP54">
-        <v>755</v>
+        <v>60</v>
       </c>
       <c r="AQ54">
-        <v>361</v>
+        <v>18</v>
       </c>
       <c r="AR54">
-        <v>294</v>
+        <v>23</v>
       </c>
       <c r="AS54">
-        <v>746</v>
+        <v>19</v>
       </c>
       <c r="AT54">
-        <v>624</v>
+        <v>15</v>
       </c>
       <c r="AU54">
-        <v>469</v>
+        <v>18</v>
       </c>
       <c r="AV54">
-        <v>402</v>
+        <v>11</v>
       </c>
       <c r="AW54">
-        <v>574</v>
+        <v>6</v>
       </c>
       <c r="AX54">
-        <v>856</v>
+        <v>14</v>
       </c>
       <c r="AY54">
-        <v>310</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:51">
@@ -9361,25 +9361,25 @@
         <v>1309</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>41591</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>4159</v>
       </c>
       <c r="I55">
         <v>1868</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L55">
         <v>39271</v>
       </c>
       <c r="M55">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="N55">
         <v>27749</v>
@@ -9510,19 +9510,19 @@
         <v>138</v>
       </c>
       <c r="E56" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="F56">
-        <v>114</v>
+        <v>1</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>1458</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="I56">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -9531,16 +9531,16 @@
         <v>0</v>
       </c>
       <c r="L56">
-        <v>3444</v>
+        <v>50</v>
       </c>
       <c r="M56">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N56">
-        <v>9915</v>
+        <v>0</v>
       </c>
       <c r="O56">
-        <v>10093</v>
+        <v>0</v>
       </c>
       <c r="P56">
         <v>0</v>
@@ -9552,103 +9552,103 @@
         <v>0</v>
       </c>
       <c r="S56">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="T56">
-        <v>9894</v>
+        <v>0</v>
       </c>
       <c r="U56">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="V56">
-        <v>410</v>
+        <v>0</v>
       </c>
       <c r="W56">
-        <v>213</v>
+        <v>0</v>
       </c>
       <c r="X56">
-        <v>222</v>
+        <v>0</v>
       </c>
       <c r="Y56">
-        <v>254</v>
+        <v>0</v>
       </c>
       <c r="Z56">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="AA56">
-        <v>357</v>
+        <v>0</v>
       </c>
       <c r="AB56">
-        <v>474</v>
+        <v>0</v>
       </c>
       <c r="AC56">
-        <v>243</v>
+        <v>0</v>
       </c>
       <c r="AD56">
-        <v>419</v>
+        <v>0</v>
       </c>
       <c r="AE56">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="AF56">
-        <v>446</v>
+        <v>0</v>
       </c>
       <c r="AG56">
-        <v>327</v>
+        <v>0</v>
       </c>
       <c r="AH56">
-        <v>345</v>
+        <v>0</v>
       </c>
       <c r="AI56">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="AJ56">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="AK56">
-        <v>1446</v>
+        <v>0</v>
       </c>
       <c r="AL56">
-        <v>323</v>
+        <v>0</v>
       </c>
       <c r="AM56">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="AN56">
-        <v>562</v>
+        <v>0</v>
       </c>
       <c r="AO56">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="AP56">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="AQ56">
-        <v>199</v>
+        <v>0</v>
       </c>
       <c r="AR56">
-        <v>434</v>
+        <v>0</v>
       </c>
       <c r="AS56">
-        <v>297</v>
+        <v>0</v>
       </c>
       <c r="AT56">
-        <v>314</v>
+        <v>0</v>
       </c>
       <c r="AU56">
-        <v>286</v>
+        <v>0</v>
       </c>
       <c r="AV56">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="AW56">
-        <v>271</v>
+        <v>0</v>
       </c>
       <c r="AX56">
-        <v>199</v>
+        <v>0</v>
       </c>
       <c r="AY56">
-        <v>215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:51">
@@ -9665,37 +9665,37 @@
         <v>139</v>
       </c>
       <c r="E57" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>5332</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>533</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L57">
-        <v>50</v>
+        <v>3444</v>
       </c>
       <c r="M57">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="N57">
-        <v>0</v>
+        <v>9915</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>10093</v>
       </c>
       <c r="P57">
         <v>0</v>
@@ -9707,103 +9707,103 @@
         <v>0</v>
       </c>
       <c r="S57">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="T57">
-        <v>0</v>
+        <v>9894</v>
       </c>
       <c r="U57">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="V57">
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="W57">
-        <v>0</v>
+        <v>213</v>
       </c>
       <c r="X57">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="Y57">
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="Z57">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="AA57">
-        <v>0</v>
+        <v>357</v>
       </c>
       <c r="AB57">
-        <v>0</v>
+        <v>474</v>
       </c>
       <c r="AC57">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="AD57">
-        <v>0</v>
+        <v>419</v>
       </c>
       <c r="AE57">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="AF57">
-        <v>0</v>
+        <v>446</v>
       </c>
       <c r="AG57">
-        <v>0</v>
+        <v>327</v>
       </c>
       <c r="AH57">
-        <v>0</v>
+        <v>345</v>
       </c>
       <c r="AI57">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="AJ57">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="AK57">
-        <v>0</v>
+        <v>1446</v>
       </c>
       <c r="AL57">
-        <v>0</v>
+        <v>323</v>
       </c>
       <c r="AM57">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="AN57">
-        <v>0</v>
+        <v>562</v>
       </c>
       <c r="AO57">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="AP57">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AQ57">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="AR57">
-        <v>0</v>
+        <v>434</v>
       </c>
       <c r="AS57">
-        <v>0</v>
+        <v>297</v>
       </c>
       <c r="AT57">
-        <v>0</v>
+        <v>314</v>
       </c>
       <c r="AU57">
-        <v>0</v>
+        <v>286</v>
       </c>
       <c r="AV57">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="AW57">
-        <v>0</v>
+        <v>271</v>
       </c>
       <c r="AX57">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="AY57">
-        <v>0</v>
+        <v>215</v>
       </c>
     </row>
     <row r="58" spans="1:51">
@@ -9820,37 +9820,37 @@
         <v>140</v>
       </c>
       <c r="E58" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="F58">
-        <v>878</v>
+        <v>112</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>1921</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="I58">
-        <v>1269</v>
+        <v>156</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="K58">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L58">
-        <v>26361</v>
+        <v>3368</v>
       </c>
       <c r="M58">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="N58">
-        <v>53655</v>
+        <v>6099</v>
       </c>
       <c r="O58">
-        <v>54924</v>
+        <v>6255</v>
       </c>
       <c r="P58">
         <v>0</v>
@@ -9859,106 +9859,106 @@
         <v>0</v>
       </c>
       <c r="R58">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="S58">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="T58">
-        <v>53157</v>
+        <v>5889</v>
       </c>
       <c r="U58">
-        <v>2467</v>
+        <v>252</v>
       </c>
       <c r="V58">
-        <v>1167</v>
+        <v>448</v>
       </c>
       <c r="W58">
-        <v>1889</v>
+        <v>261</v>
       </c>
       <c r="X58">
-        <v>1279</v>
+        <v>299</v>
       </c>
       <c r="Y58">
-        <v>2047</v>
+        <v>237</v>
       </c>
       <c r="Z58">
-        <v>1293</v>
+        <v>368</v>
       </c>
       <c r="AA58">
-        <v>3183</v>
+        <v>285</v>
       </c>
       <c r="AB58">
-        <v>2592</v>
+        <v>102</v>
       </c>
       <c r="AC58">
-        <v>1267</v>
+        <v>85</v>
       </c>
       <c r="AD58">
-        <v>945</v>
+        <v>202</v>
       </c>
       <c r="AE58">
-        <v>957</v>
+        <v>421</v>
       </c>
       <c r="AF58">
-        <v>1275</v>
+        <v>356</v>
       </c>
       <c r="AG58">
-        <v>1422</v>
+        <v>372</v>
       </c>
       <c r="AH58">
-        <v>1431</v>
+        <v>65</v>
       </c>
       <c r="AI58">
-        <v>1657</v>
+        <v>165</v>
       </c>
       <c r="AJ58">
-        <v>780</v>
+        <v>277</v>
       </c>
       <c r="AK58">
-        <v>1971</v>
+        <v>23</v>
       </c>
       <c r="AL58">
-        <v>1484</v>
+        <v>153</v>
       </c>
       <c r="AM58">
-        <v>1758</v>
+        <v>8</v>
       </c>
       <c r="AN58">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="AO58">
-        <v>1847</v>
+        <v>231</v>
       </c>
       <c r="AP58">
-        <v>1497</v>
+        <v>30</v>
       </c>
       <c r="AQ58">
-        <v>1767</v>
+        <v>366</v>
       </c>
       <c r="AR58">
-        <v>1616</v>
+        <v>103</v>
       </c>
       <c r="AS58">
-        <v>2418</v>
+        <v>201</v>
       </c>
       <c r="AT58">
-        <v>2573</v>
+        <v>246</v>
       </c>
       <c r="AU58">
-        <v>3642</v>
+        <v>0</v>
       </c>
       <c r="AV58">
-        <v>2357</v>
+        <v>180</v>
       </c>
       <c r="AW58">
-        <v>2148</v>
+        <v>182</v>
       </c>
       <c r="AX58">
-        <v>1096</v>
+        <v>126</v>
       </c>
       <c r="AY58">
-        <v>2129</v>
+        <v>196</v>
       </c>
     </row>
     <row r="59" spans="1:51">
@@ -9981,25 +9981,25 @@
         <v>56</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>2103</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="I59">
         <v>64</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K59">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L59">
         <v>1703</v>
       </c>
       <c r="M59">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="N59">
         <v>4737</v>
@@ -10130,37 +10130,37 @@
         <v>142</v>
       </c>
       <c r="E60" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="F60">
-        <v>112</v>
+        <v>878</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>35193</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>3519</v>
       </c>
       <c r="I60">
-        <v>156</v>
+        <v>1269</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="K60">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L60">
-        <v>3368</v>
+        <v>26361</v>
       </c>
       <c r="M60">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="N60">
-        <v>6099</v>
+        <v>53655</v>
       </c>
       <c r="O60">
-        <v>6255</v>
+        <v>54924</v>
       </c>
       <c r="P60">
         <v>0</v>
@@ -10169,106 +10169,106 @@
         <v>0</v>
       </c>
       <c r="R60">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="S60">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="T60">
-        <v>5889</v>
+        <v>53157</v>
       </c>
       <c r="U60">
-        <v>252</v>
+        <v>2467</v>
       </c>
       <c r="V60">
-        <v>448</v>
+        <v>1167</v>
       </c>
       <c r="W60">
-        <v>261</v>
+        <v>1889</v>
       </c>
       <c r="X60">
-        <v>299</v>
+        <v>1279</v>
       </c>
       <c r="Y60">
-        <v>237</v>
+        <v>2047</v>
       </c>
       <c r="Z60">
-        <v>368</v>
+        <v>1293</v>
       </c>
       <c r="AA60">
-        <v>285</v>
+        <v>3183</v>
       </c>
       <c r="AB60">
-        <v>102</v>
+        <v>2592</v>
       </c>
       <c r="AC60">
-        <v>85</v>
+        <v>1267</v>
       </c>
       <c r="AD60">
-        <v>202</v>
+        <v>945</v>
       </c>
       <c r="AE60">
-        <v>421</v>
+        <v>957</v>
       </c>
       <c r="AF60">
-        <v>356</v>
+        <v>1275</v>
       </c>
       <c r="AG60">
-        <v>372</v>
+        <v>1422</v>
       </c>
       <c r="AH60">
-        <v>65</v>
+        <v>1431</v>
       </c>
       <c r="AI60">
-        <v>165</v>
+        <v>1657</v>
       </c>
       <c r="AJ60">
-        <v>277</v>
+        <v>780</v>
       </c>
       <c r="AK60">
-        <v>23</v>
+        <v>1971</v>
       </c>
       <c r="AL60">
-        <v>153</v>
+        <v>1484</v>
       </c>
       <c r="AM60">
-        <v>8</v>
+        <v>1758</v>
       </c>
       <c r="AN60">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AO60">
-        <v>231</v>
+        <v>1847</v>
       </c>
       <c r="AP60">
-        <v>30</v>
+        <v>1497</v>
       </c>
       <c r="AQ60">
-        <v>366</v>
+        <v>1767</v>
       </c>
       <c r="AR60">
-        <v>103</v>
+        <v>1616</v>
       </c>
       <c r="AS60">
-        <v>201</v>
+        <v>2418</v>
       </c>
       <c r="AT60">
-        <v>246</v>
+        <v>2573</v>
       </c>
       <c r="AU60">
-        <v>0</v>
+        <v>3642</v>
       </c>
       <c r="AV60">
-        <v>180</v>
+        <v>2357</v>
       </c>
       <c r="AW60">
-        <v>182</v>
+        <v>2148</v>
       </c>
       <c r="AX60">
-        <v>126</v>
+        <v>1096</v>
       </c>
       <c r="AY60">
-        <v>196</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="61" spans="1:51">
@@ -10291,25 +10291,25 @@
         <v>49</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>1289</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="I61">
         <v>82</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="K61">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L61">
         <v>1471</v>
       </c>
       <c r="M61">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="N61">
         <v>5231</v>
@@ -10446,25 +10446,25 @@
         <v>821</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>34128</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>3412</v>
       </c>
       <c r="I62">
         <v>1652</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="K62">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L62">
         <v>24647</v>
       </c>
       <c r="M62">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="N62">
         <v>59578</v>
@@ -10595,145 +10595,145 @@
         <v>145</v>
       </c>
       <c r="E63" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="F63">
-        <v>172</v>
+        <v>30</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>1906</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="I63">
-        <v>241</v>
+        <v>28</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L63">
-        <v>5161</v>
+        <v>904</v>
       </c>
       <c r="M63">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="N63">
-        <v>28032</v>
+        <v>4134</v>
       </c>
       <c r="O63">
-        <v>28273</v>
+        <v>4162</v>
       </c>
       <c r="P63">
         <v>0</v>
       </c>
       <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>4146</v>
+      </c>
+      <c r="U63">
+        <v>367</v>
+      </c>
+      <c r="V63">
+        <v>125</v>
+      </c>
+      <c r="W63">
+        <v>140</v>
+      </c>
+      <c r="X63">
+        <v>24</v>
+      </c>
+      <c r="Y63">
+        <v>119</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>55</v>
+      </c>
+      <c r="AB63">
+        <v>81</v>
+      </c>
+      <c r="AC63">
+        <v>87</v>
+      </c>
+      <c r="AD63">
+        <v>166</v>
+      </c>
+      <c r="AE63">
         <v>9</v>
       </c>
-      <c r="R63">
-        <v>0</v>
-      </c>
-      <c r="S63">
-        <v>13184</v>
-      </c>
-      <c r="T63">
-        <v>27769</v>
-      </c>
-      <c r="U63">
-        <v>552</v>
-      </c>
-      <c r="V63">
-        <v>505</v>
-      </c>
-      <c r="W63">
-        <v>462</v>
-      </c>
-      <c r="X63">
-        <v>433</v>
-      </c>
-      <c r="Y63">
-        <v>208</v>
-      </c>
-      <c r="Z63">
-        <v>358</v>
-      </c>
-      <c r="AA63">
-        <v>520</v>
-      </c>
-      <c r="AB63">
-        <v>527</v>
-      </c>
-      <c r="AC63">
-        <v>650</v>
-      </c>
-      <c r="AD63">
-        <v>148</v>
-      </c>
-      <c r="AE63">
-        <v>510</v>
-      </c>
       <c r="AF63">
-        <v>593</v>
+        <v>73</v>
       </c>
       <c r="AG63">
-        <v>626</v>
+        <v>166</v>
       </c>
       <c r="AH63">
-        <v>468</v>
+        <v>144</v>
       </c>
       <c r="AI63">
-        <v>178</v>
+        <v>39</v>
       </c>
       <c r="AJ63">
-        <v>194</v>
+        <v>132</v>
       </c>
       <c r="AK63">
-        <v>14306</v>
+        <v>366</v>
       </c>
       <c r="AL63">
-        <v>885</v>
+        <v>187</v>
       </c>
       <c r="AM63">
-        <v>542</v>
+        <v>101</v>
       </c>
       <c r="AN63">
-        <v>1136</v>
+        <v>451</v>
       </c>
       <c r="AO63">
-        <v>264</v>
+        <v>201</v>
       </c>
       <c r="AP63">
-        <v>173</v>
+        <v>44</v>
       </c>
       <c r="AQ63">
-        <v>504</v>
+        <v>16</v>
       </c>
       <c r="AR63">
-        <v>445</v>
+        <v>0</v>
       </c>
       <c r="AS63">
-        <v>452</v>
+        <v>89</v>
       </c>
       <c r="AT63">
-        <v>503</v>
+        <v>76</v>
       </c>
       <c r="AU63">
-        <v>853</v>
+        <v>58</v>
       </c>
       <c r="AV63">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="AW63">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="AX63">
-        <v>262</v>
+        <v>76</v>
       </c>
       <c r="AY63">
-        <v>579</v>
+        <v>334</v>
       </c>
     </row>
     <row r="64" spans="1:51">
@@ -10750,145 +10750,145 @@
         <v>146</v>
       </c>
       <c r="E64" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="F64">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>7560</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>756</v>
       </c>
       <c r="I64">
-        <v>28</v>
+        <v>241</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="K64">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L64">
-        <v>904</v>
+        <v>5161</v>
       </c>
       <c r="M64">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="N64">
-        <v>4134</v>
+        <v>28032</v>
       </c>
       <c r="O64">
-        <v>4162</v>
+        <v>28273</v>
       </c>
       <c r="P64">
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R64">
         <v>0</v>
       </c>
       <c r="S64">
-        <v>0</v>
+        <v>13184</v>
       </c>
       <c r="T64">
-        <v>4146</v>
+        <v>27769</v>
       </c>
       <c r="U64">
-        <v>367</v>
+        <v>552</v>
       </c>
       <c r="V64">
-        <v>125</v>
+        <v>505</v>
       </c>
       <c r="W64">
-        <v>140</v>
+        <v>462</v>
       </c>
       <c r="X64">
-        <v>24</v>
+        <v>433</v>
       </c>
       <c r="Y64">
-        <v>119</v>
+        <v>208</v>
       </c>
       <c r="Z64">
-        <v>0</v>
+        <v>358</v>
       </c>
       <c r="AA64">
-        <v>55</v>
+        <v>520</v>
       </c>
       <c r="AB64">
-        <v>81</v>
+        <v>527</v>
       </c>
       <c r="AC64">
-        <v>87</v>
+        <v>650</v>
       </c>
       <c r="AD64">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="AE64">
-        <v>9</v>
+        <v>510</v>
       </c>
       <c r="AF64">
-        <v>73</v>
+        <v>593</v>
       </c>
       <c r="AG64">
-        <v>166</v>
+        <v>626</v>
       </c>
       <c r="AH64">
-        <v>144</v>
+        <v>468</v>
       </c>
       <c r="AI64">
-        <v>39</v>
+        <v>178</v>
       </c>
       <c r="AJ64">
-        <v>132</v>
+        <v>194</v>
       </c>
       <c r="AK64">
-        <v>366</v>
+        <v>14306</v>
       </c>
       <c r="AL64">
-        <v>187</v>
+        <v>885</v>
       </c>
       <c r="AM64">
-        <v>101</v>
+        <v>542</v>
       </c>
       <c r="AN64">
-        <v>451</v>
+        <v>1136</v>
       </c>
       <c r="AO64">
-        <v>201</v>
+        <v>264</v>
       </c>
       <c r="AP64">
-        <v>44</v>
+        <v>173</v>
       </c>
       <c r="AQ64">
-        <v>16</v>
+        <v>504</v>
       </c>
       <c r="AR64">
-        <v>0</v>
+        <v>445</v>
       </c>
       <c r="AS64">
-        <v>89</v>
+        <v>452</v>
       </c>
       <c r="AT64">
-        <v>76</v>
+        <v>503</v>
       </c>
       <c r="AU64">
-        <v>58</v>
+        <v>853</v>
       </c>
       <c r="AV64">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="AW64">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="AX64">
-        <v>76</v>
+        <v>262</v>
       </c>
       <c r="AY64">
-        <v>334</v>
+        <v>579</v>
       </c>
     </row>
     <row r="65" spans="1:51">
@@ -10911,25 +10911,25 @@
         <v>43</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>1830</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="I65">
         <v>48</v>
       </c>
       <c r="J65">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="K65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L65">
         <v>1300</v>
       </c>
       <c r="M65">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="N65">
         <v>1383</v>
@@ -11066,25 +11066,25 @@
         <v>205</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>8534</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>853</v>
       </c>
       <c r="I66">
         <v>333</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="K66">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L66">
         <v>6155</v>
       </c>
       <c r="M66">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="N66">
         <v>11666</v>
@@ -11221,25 +11221,25 @@
         <v>77</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>3564</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>356</v>
       </c>
       <c r="I67">
         <v>113</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="K67">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L67">
         <v>2322</v>
       </c>
       <c r="M67">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N67">
         <v>8254</v>
@@ -11376,25 +11376,25 @@
         <v>342</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>9595</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>959</v>
       </c>
       <c r="I68">
         <v>471</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="K68">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L68">
         <v>10286</v>
       </c>
       <c r="M68">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="N68">
         <v>16086</v>
@@ -11531,25 +11531,25 @@
         <v>145</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>2285</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="I69">
         <v>174</v>
       </c>
       <c r="J69">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="K69">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L69">
         <v>4357</v>
       </c>
       <c r="M69">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="N69">
         <v>5838</v>
@@ -11686,25 +11686,25 @@
         <v>283</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>11731</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1173</v>
       </c>
       <c r="I70">
         <v>484</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="K70">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L70">
         <v>8504</v>
       </c>
       <c r="M70">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="N70">
         <v>5062</v>
@@ -11841,25 +11841,25 @@
         <v>30</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>521</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="I71">
         <v>39</v>
       </c>
       <c r="J71">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="K71">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L71">
         <v>914</v>
       </c>
       <c r="M71">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="N71">
         <v>1664</v>
@@ -11996,25 +11996,25 @@
         <v>137</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>4555</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="I72">
         <v>217</v>
       </c>
       <c r="J72">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="K72">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L72">
         <v>4117</v>
       </c>
       <c r="M72">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N72">
         <v>5637</v>
@@ -12151,25 +12151,25 @@
         <v>4440</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>197285</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>19728</v>
       </c>
       <c r="I73">
         <v>9274</v>
       </c>
       <c r="J73">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="K73">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L73">
         <v>133208</v>
       </c>
       <c r="M73">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="N73">
         <v>93004</v>
@@ -12306,25 +12306,25 @@
         <v>107</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>6190</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>619</v>
       </c>
       <c r="I74">
         <v>189</v>
       </c>
       <c r="J74">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K74">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L74">
         <v>3219</v>
       </c>
       <c r="M74">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="N74">
         <v>17549</v>
@@ -12765,145 +12765,145 @@
         <v>159</v>
       </c>
       <c r="E77" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
       <c r="F77">
-        <v>203</v>
+        <v>299</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>8200</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>820</v>
       </c>
       <c r="I77">
-        <v>277</v>
+        <v>223</v>
       </c>
       <c r="J77">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="K77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L77">
-        <v>6103</v>
+        <v>8999</v>
       </c>
       <c r="M77">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="N77">
-        <v>14734</v>
+        <v>36909</v>
       </c>
       <c r="O77">
-        <v>15011</v>
+        <v>37132</v>
       </c>
       <c r="P77">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="Q77">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="R77">
         <v>0</v>
       </c>
       <c r="S77">
-        <v>144</v>
+        <v>600</v>
       </c>
       <c r="T77">
-        <v>14199</v>
+        <v>35918</v>
       </c>
       <c r="U77">
-        <v>448</v>
+        <v>1181</v>
       </c>
       <c r="V77">
-        <v>517</v>
+        <v>2159</v>
       </c>
       <c r="W77">
-        <v>501</v>
+        <v>983</v>
       </c>
       <c r="X77">
-        <v>467</v>
+        <v>1863</v>
       </c>
       <c r="Y77">
-        <v>525</v>
+        <v>1442</v>
       </c>
       <c r="Z77">
-        <v>518</v>
+        <v>1374</v>
       </c>
       <c r="AA77">
-        <v>437</v>
+        <v>1174</v>
       </c>
       <c r="AB77">
-        <v>431</v>
+        <v>1119</v>
       </c>
       <c r="AC77">
-        <v>626</v>
+        <v>951</v>
       </c>
       <c r="AD77">
-        <v>416</v>
+        <v>1191</v>
       </c>
       <c r="AE77">
-        <v>376</v>
+        <v>969</v>
       </c>
       <c r="AF77">
-        <v>221</v>
+        <v>1088</v>
       </c>
       <c r="AG77">
-        <v>548</v>
+        <v>788</v>
       </c>
       <c r="AH77">
-        <v>245</v>
+        <v>824</v>
       </c>
       <c r="AI77">
-        <v>575</v>
+        <v>1822</v>
       </c>
       <c r="AJ77">
-        <v>241</v>
+        <v>853</v>
       </c>
       <c r="AK77">
-        <v>422</v>
+        <v>1203</v>
       </c>
       <c r="AL77">
-        <v>595</v>
+        <v>1221</v>
       </c>
       <c r="AM77">
-        <v>429</v>
+        <v>697</v>
       </c>
       <c r="AN77">
-        <v>713</v>
+        <v>1569</v>
       </c>
       <c r="AO77">
-        <v>654</v>
+        <v>785</v>
       </c>
       <c r="AP77">
-        <v>823</v>
+        <v>1723</v>
       </c>
       <c r="AQ77">
-        <v>812</v>
+        <v>1214</v>
       </c>
       <c r="AR77">
-        <v>591</v>
+        <v>1738</v>
       </c>
       <c r="AS77">
-        <v>337</v>
+        <v>676</v>
       </c>
       <c r="AT77">
-        <v>296</v>
+        <v>658</v>
       </c>
       <c r="AU77">
-        <v>444</v>
+        <v>778</v>
       </c>
       <c r="AV77">
-        <v>299</v>
+        <v>1163</v>
       </c>
       <c r="AW77">
-        <v>510</v>
+        <v>939</v>
       </c>
       <c r="AX77">
-        <v>445</v>
+        <v>1490</v>
       </c>
       <c r="AY77">
-        <v>549</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="78" spans="1:51">
@@ -12920,40 +12920,40 @@
         <v>160</v>
       </c>
       <c r="E78" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F78">
-        <v>665</v>
+        <v>203</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>8999</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>899</v>
       </c>
       <c r="I78">
-        <v>655</v>
+        <v>277</v>
       </c>
       <c r="J78">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K78">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L78">
-        <v>19974</v>
+        <v>6103</v>
       </c>
       <c r="M78">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="N78">
-        <v>35169</v>
+        <v>14734</v>
       </c>
       <c r="O78">
-        <v>35824</v>
+        <v>15011</v>
       </c>
       <c r="P78">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="Q78">
         <v>0</v>
@@ -12962,103 +12962,103 @@
         <v>0</v>
       </c>
       <c r="S78">
-        <v>736</v>
+        <v>144</v>
       </c>
       <c r="T78">
-        <v>34280</v>
+        <v>14199</v>
       </c>
       <c r="U78">
-        <v>1624</v>
+        <v>448</v>
       </c>
       <c r="V78">
-        <v>1106</v>
+        <v>517</v>
       </c>
       <c r="W78">
-        <v>944</v>
+        <v>501</v>
       </c>
       <c r="X78">
-        <v>1527</v>
+        <v>467</v>
       </c>
       <c r="Y78">
-        <v>700</v>
+        <v>525</v>
       </c>
       <c r="Z78">
-        <v>448</v>
+        <v>518</v>
       </c>
       <c r="AA78">
-        <v>1227</v>
+        <v>437</v>
       </c>
       <c r="AB78">
-        <v>954</v>
+        <v>431</v>
       </c>
       <c r="AC78">
-        <v>1255</v>
+        <v>626</v>
       </c>
       <c r="AD78">
-        <v>1468</v>
+        <v>416</v>
       </c>
       <c r="AE78">
-        <v>647</v>
+        <v>376</v>
       </c>
       <c r="AF78">
-        <v>389</v>
+        <v>221</v>
       </c>
       <c r="AG78">
-        <v>1101</v>
+        <v>548</v>
       </c>
       <c r="AH78">
-        <v>1093</v>
+        <v>245</v>
       </c>
       <c r="AI78">
-        <v>1137</v>
+        <v>575</v>
       </c>
       <c r="AJ78">
-        <v>1230</v>
+        <v>241</v>
       </c>
       <c r="AK78">
-        <v>1254</v>
+        <v>422</v>
       </c>
       <c r="AL78">
-        <v>1033</v>
+        <v>595</v>
       </c>
       <c r="AM78">
-        <v>756</v>
+        <v>429</v>
       </c>
       <c r="AN78">
-        <v>1087</v>
+        <v>713</v>
       </c>
       <c r="AO78">
-        <v>2194</v>
+        <v>654</v>
       </c>
       <c r="AP78">
-        <v>1643</v>
+        <v>823</v>
       </c>
       <c r="AQ78">
-        <v>1544</v>
+        <v>812</v>
       </c>
       <c r="AR78">
-        <v>1167</v>
+        <v>591</v>
       </c>
       <c r="AS78">
-        <v>1365</v>
+        <v>337</v>
       </c>
       <c r="AT78">
-        <v>1131</v>
+        <v>296</v>
       </c>
       <c r="AU78">
-        <v>542</v>
+        <v>444</v>
       </c>
       <c r="AV78">
-        <v>1273</v>
+        <v>299</v>
       </c>
       <c r="AW78">
-        <v>1270</v>
+        <v>510</v>
       </c>
       <c r="AX78">
-        <v>1595</v>
+        <v>445</v>
       </c>
       <c r="AY78">
-        <v>1120</v>
+        <v>549</v>
       </c>
     </row>
     <row r="79" spans="1:51">
@@ -13075,145 +13075,145 @@
         <v>161</v>
       </c>
       <c r="E79" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F79">
-        <v>2277</v>
+        <v>665</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>37000</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>3700</v>
       </c>
       <c r="I79">
-        <v>1660</v>
+        <v>655</v>
       </c>
       <c r="J79">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="K79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L79">
-        <v>68326</v>
+        <v>19974</v>
       </c>
       <c r="M79">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="N79">
-        <v>91383</v>
+        <v>35169</v>
       </c>
       <c r="O79">
-        <v>93043</v>
+        <v>35824</v>
       </c>
       <c r="P79">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="Q79">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R79">
         <v>0</v>
       </c>
       <c r="S79">
-        <v>0</v>
+        <v>736</v>
       </c>
       <c r="T79">
-        <v>91197</v>
+        <v>34280</v>
       </c>
       <c r="U79">
-        <v>3469</v>
+        <v>1624</v>
       </c>
       <c r="V79">
-        <v>4000</v>
+        <v>1106</v>
       </c>
       <c r="W79">
-        <v>2350</v>
+        <v>944</v>
       </c>
       <c r="X79">
-        <v>5862</v>
+        <v>1527</v>
       </c>
       <c r="Y79">
-        <v>10427</v>
+        <v>700</v>
       </c>
       <c r="Z79">
-        <v>5795</v>
+        <v>448</v>
       </c>
       <c r="AA79">
-        <v>2373</v>
+        <v>1227</v>
       </c>
       <c r="AB79">
-        <v>2289</v>
+        <v>954</v>
       </c>
       <c r="AC79">
-        <v>2399</v>
+        <v>1255</v>
       </c>
       <c r="AD79">
-        <v>2030</v>
+        <v>1468</v>
       </c>
       <c r="AE79">
-        <v>2134</v>
+        <v>647</v>
       </c>
       <c r="AF79">
-        <v>3473</v>
+        <v>389</v>
       </c>
       <c r="AG79">
-        <v>3417</v>
+        <v>1101</v>
       </c>
       <c r="AH79">
-        <v>1847</v>
+        <v>1093</v>
       </c>
       <c r="AI79">
-        <v>3478</v>
+        <v>1137</v>
       </c>
       <c r="AJ79">
-        <v>3189</v>
+        <v>1230</v>
       </c>
       <c r="AK79">
-        <v>1072</v>
+        <v>1254</v>
       </c>
       <c r="AL79">
+        <v>1033</v>
+      </c>
+      <c r="AM79">
+        <v>756</v>
+      </c>
+      <c r="AN79">
         <v>1087</v>
       </c>
-      <c r="AM79">
-        <v>3262</v>
-      </c>
-      <c r="AN79">
-        <v>1635</v>
-      </c>
       <c r="AO79">
-        <v>2930</v>
+        <v>2194</v>
       </c>
       <c r="AP79">
-        <v>2970</v>
+        <v>1643</v>
       </c>
       <c r="AQ79">
-        <v>1846</v>
+        <v>1544</v>
       </c>
       <c r="AR79">
-        <v>2516</v>
+        <v>1167</v>
       </c>
       <c r="AS79">
-        <v>3392</v>
+        <v>1365</v>
       </c>
       <c r="AT79">
-        <v>2623</v>
+        <v>1131</v>
       </c>
       <c r="AU79">
-        <v>2333</v>
+        <v>542</v>
       </c>
       <c r="AV79">
-        <v>1895</v>
+        <v>1273</v>
       </c>
       <c r="AW79">
-        <v>2578</v>
+        <v>1270</v>
       </c>
       <c r="AX79">
-        <v>2097</v>
+        <v>1595</v>
       </c>
       <c r="AY79">
-        <v>2275</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="80" spans="1:51">
@@ -13230,145 +13230,145 @@
         <v>162</v>
       </c>
       <c r="E80" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="F80">
-        <v>299</v>
+        <v>1528</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>58000</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>5800</v>
       </c>
       <c r="I80">
-        <v>223</v>
+        <v>1669</v>
       </c>
       <c r="J80">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="K80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L80">
-        <v>8999</v>
+        <v>45866</v>
       </c>
       <c r="M80">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="N80">
-        <v>36909</v>
+        <v>70150</v>
       </c>
       <c r="O80">
-        <v>37132</v>
+        <v>71819</v>
       </c>
       <c r="P80">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="Q80">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="R80">
         <v>0</v>
       </c>
       <c r="S80">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="T80">
-        <v>35918</v>
+        <v>69284</v>
       </c>
       <c r="U80">
-        <v>1181</v>
+        <v>2146</v>
       </c>
       <c r="V80">
-        <v>2159</v>
+        <v>3286</v>
       </c>
       <c r="W80">
-        <v>983</v>
+        <v>1914</v>
       </c>
       <c r="X80">
-        <v>1863</v>
+        <v>2328</v>
       </c>
       <c r="Y80">
-        <v>1442</v>
+        <v>1516</v>
       </c>
       <c r="Z80">
-        <v>1374</v>
+        <v>1608</v>
       </c>
       <c r="AA80">
-        <v>1174</v>
+        <v>2518</v>
       </c>
       <c r="AB80">
-        <v>1119</v>
+        <v>2727</v>
       </c>
       <c r="AC80">
-        <v>951</v>
+        <v>2665</v>
       </c>
       <c r="AD80">
-        <v>1191</v>
+        <v>1909</v>
       </c>
       <c r="AE80">
-        <v>969</v>
+        <v>2925</v>
       </c>
       <c r="AF80">
-        <v>1088</v>
+        <v>1176</v>
       </c>
       <c r="AG80">
-        <v>788</v>
+        <v>1437</v>
       </c>
       <c r="AH80">
-        <v>824</v>
+        <v>2137</v>
       </c>
       <c r="AI80">
-        <v>1822</v>
+        <v>1699</v>
       </c>
       <c r="AJ80">
-        <v>853</v>
+        <v>1480</v>
       </c>
       <c r="AK80">
-        <v>1203</v>
+        <v>2979</v>
       </c>
       <c r="AL80">
-        <v>1221</v>
+        <v>3120</v>
       </c>
       <c r="AM80">
-        <v>697</v>
+        <v>2072</v>
       </c>
       <c r="AN80">
-        <v>1569</v>
+        <v>2276</v>
       </c>
       <c r="AO80">
-        <v>785</v>
+        <v>1913</v>
       </c>
       <c r="AP80">
-        <v>1723</v>
+        <v>2760</v>
       </c>
       <c r="AQ80">
-        <v>1214</v>
+        <v>2535</v>
       </c>
       <c r="AR80">
-        <v>1738</v>
+        <v>2905</v>
       </c>
       <c r="AS80">
-        <v>676</v>
+        <v>2404</v>
       </c>
       <c r="AT80">
-        <v>658</v>
+        <v>1691</v>
       </c>
       <c r="AU80">
-        <v>778</v>
+        <v>3699</v>
       </c>
       <c r="AV80">
-        <v>1163</v>
+        <v>1518</v>
       </c>
       <c r="AW80">
-        <v>939</v>
+        <v>4075</v>
       </c>
       <c r="AX80">
-        <v>1490</v>
+        <v>1956</v>
       </c>
       <c r="AY80">
-        <v>1497</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="81" spans="1:51">
@@ -13388,40 +13388,40 @@
         <v>197</v>
       </c>
       <c r="F81">
-        <v>1528</v>
+        <v>2277</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="I81">
-        <v>1669</v>
+        <v>1660</v>
       </c>
       <c r="J81">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="K81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L81">
-        <v>45866</v>
+        <v>68326</v>
       </c>
       <c r="M81">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="N81">
-        <v>70150</v>
+        <v>91383</v>
       </c>
       <c r="O81">
-        <v>71819</v>
+        <v>93043</v>
       </c>
       <c r="P81">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="Q81">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R81">
         <v>0</v>
@@ -13430,100 +13430,100 @@
         <v>0</v>
       </c>
       <c r="T81">
-        <v>69284</v>
+        <v>91197</v>
       </c>
       <c r="U81">
-        <v>2146</v>
+        <v>3469</v>
       </c>
       <c r="V81">
-        <v>3286</v>
+        <v>4000</v>
       </c>
       <c r="W81">
-        <v>1914</v>
+        <v>2350</v>
       </c>
       <c r="X81">
-        <v>2328</v>
+        <v>5862</v>
       </c>
       <c r="Y81">
-        <v>1516</v>
+        <v>10427</v>
       </c>
       <c r="Z81">
-        <v>1608</v>
+        <v>5795</v>
       </c>
       <c r="AA81">
-        <v>2518</v>
+        <v>2373</v>
       </c>
       <c r="AB81">
-        <v>2727</v>
+        <v>2289</v>
       </c>
       <c r="AC81">
-        <v>2665</v>
+        <v>2399</v>
       </c>
       <c r="AD81">
-        <v>1909</v>
+        <v>2030</v>
       </c>
       <c r="AE81">
-        <v>2925</v>
+        <v>2134</v>
       </c>
       <c r="AF81">
-        <v>1176</v>
+        <v>3473</v>
       </c>
       <c r="AG81">
-        <v>1437</v>
+        <v>3417</v>
       </c>
       <c r="AH81">
-        <v>2137</v>
+        <v>1847</v>
       </c>
       <c r="AI81">
-        <v>1699</v>
+        <v>3478</v>
       </c>
       <c r="AJ81">
-        <v>1480</v>
+        <v>3189</v>
       </c>
       <c r="AK81">
-        <v>2979</v>
+        <v>1072</v>
       </c>
       <c r="AL81">
-        <v>3120</v>
+        <v>1087</v>
       </c>
       <c r="AM81">
-        <v>2072</v>
+        <v>3262</v>
       </c>
       <c r="AN81">
-        <v>2276</v>
+        <v>1635</v>
       </c>
       <c r="AO81">
-        <v>1913</v>
+        <v>2930</v>
       </c>
       <c r="AP81">
-        <v>2760</v>
+        <v>2970</v>
       </c>
       <c r="AQ81">
-        <v>2535</v>
+        <v>1846</v>
       </c>
       <c r="AR81">
-        <v>2905</v>
+        <v>2516</v>
       </c>
       <c r="AS81">
-        <v>2404</v>
+        <v>3392</v>
       </c>
       <c r="AT81">
-        <v>1691</v>
+        <v>2623</v>
       </c>
       <c r="AU81">
-        <v>3699</v>
+        <v>2333</v>
       </c>
       <c r="AV81">
-        <v>1518</v>
+        <v>1895</v>
       </c>
       <c r="AW81">
-        <v>4075</v>
+        <v>2578</v>
       </c>
       <c r="AX81">
-        <v>1956</v>
+        <v>2097</v>
       </c>
       <c r="AY81">
-        <v>2445</v>
+        <v>2275</v>
       </c>
     </row>
   </sheetData>
